--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/甬金股份-JH_00026.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/甬金股份-JH_00026.xlsx
@@ -241,10 +241,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -299,14 +299,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,7 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,16 +336,32 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,31 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,9 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,24 +412,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +511,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,43 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,13 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,25 +583,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,25 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,6 +632,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,8 +731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,23 +740,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +785,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -815,13 +811,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,85 +830,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,65 +917,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,9 +1087,6 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,72 +1210,36 @@
           <cell r="J4">
             <v>5245</v>
           </cell>
-          <cell r="K4">
-            <v>26.5</v>
-          </cell>
-          <cell r="L4">
-            <v>25.21</v>
-          </cell>
-          <cell r="M4">
-            <v>28.15</v>
-          </cell>
-          <cell r="N4">
-            <v>21.87</v>
-          </cell>
-          <cell r="O4">
-            <v>6.28</v>
-          </cell>
-          <cell r="P4">
-            <v>150.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.232558139534884</v>
-          </cell>
         </row>
         <row r="4">
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>44526</v>
+          </cell>
+          <cell r="N4">
+            <v>24.89</v>
+          </cell>
+          <cell r="O4">
+            <v>100</v>
+          </cell>
+          <cell r="P4">
+            <v>5</v>
+          </cell>
+          <cell r="Q4">
+            <v>2.489</v>
+          </cell>
+          <cell r="R4">
+            <v>0</v>
+          </cell>
           <cell r="S4">
-            <v>0</v>
+            <v>2481.511</v>
           </cell>
           <cell r="T4">
-            <v>44526</v>
-          </cell>
-          <cell r="U4">
-            <v>24.89</v>
-          </cell>
-          <cell r="V4">
-            <v>100</v>
-          </cell>
-          <cell r="W4">
-            <v>5</v>
-          </cell>
-          <cell r="X4">
-            <v>2.489</v>
-          </cell>
-          <cell r="Y4">
-            <v>0</v>
-          </cell>
-          <cell r="Z4">
-            <v>2481.511</v>
-          </cell>
-          <cell r="AA4">
-            <v>27.43</v>
-          </cell>
-          <cell r="AB4">
-            <v>24.74</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.0557620817843874</v>
-          </cell>
-          <cell r="AD4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AF4">
-            <v>26.295</v>
-          </cell>
-          <cell r="AG4" t="str">
+          <cell r="U4" t="str">
             <v>1.入场时，忽略了距离最高点的距离;
 2.入场时，忽略了成交量的情况。
 3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
@@ -1290,38 +1251,29 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>44531</v>
+          </cell>
+          <cell r="N5">
+            <v>27.7</v>
+          </cell>
+          <cell r="O5">
+            <v>100</v>
+          </cell>
+          <cell r="P5">
+            <v>5</v>
+          </cell>
+          <cell r="Q5">
+            <v>2.77</v>
+          </cell>
+          <cell r="R5">
+            <v>0</v>
+          </cell>
           <cell r="S5">
-            <v>0</v>
-          </cell>
-          <cell r="T5">
-            <v>44531</v>
-          </cell>
-          <cell r="U5">
-            <v>27.7</v>
-          </cell>
-          <cell r="V5">
-            <v>100</v>
-          </cell>
-          <cell r="W5">
-            <v>5</v>
-          </cell>
-          <cell r="X5">
-            <v>2.77</v>
-          </cell>
-          <cell r="Y5">
-            <v>0</v>
-          </cell>
-          <cell r="Z5">
             <v>2762.23</v>
-          </cell>
-          <cell r="AA5">
-            <v>28.7</v>
-          </cell>
-          <cell r="AB5">
-            <v>27.5</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.166666666666666</v>
           </cell>
         </row>
         <row r="6">
@@ -1356,47 +1308,33 @@
             <v>3378.06746</v>
           </cell>
           <cell r="K6">
-            <v>35.36</v>
+            <v>34.7</v>
           </cell>
           <cell r="L6">
-            <v>33.1</v>
+            <v>0</v>
           </cell>
           <cell r="M6">
-            <v>35.48</v>
+            <v>44560</v>
           </cell>
           <cell r="N6">
-            <v>31.36</v>
+            <v>39.96</v>
           </cell>
           <cell r="O6">
-            <v>4.12</v>
+            <v>100</v>
           </cell>
           <cell r="P6">
-            <v>37.41</v>
+            <v>5</v>
           </cell>
           <cell r="Q6">
-            <v>0.721238938053099</v>
-          </cell>
-          <cell r="R6">
-            <v>34.7</v>
-          </cell>
-          <cell r="S6">
-            <v>0</v>
+            <v>3.996</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="X6">
-            <v>0</v>
-          </cell>
-          <cell r="Y6">
-            <v>0</v>
-          </cell>
-          <cell r="Z6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AD6">
-            <v>0</v>
+          <cell r="S6">
+            <v>3987.004</v>
+          </cell>
+          <cell r="T6">
+            <v>608.93654</v>
           </cell>
         </row>
         <row r="7">
@@ -1431,70 +1369,34 @@
             <v>3275.0654</v>
           </cell>
           <cell r="K7">
-            <v>33.9</v>
+            <v>30.89</v>
           </cell>
           <cell r="L7">
-            <v>32.49</v>
+            <v>0</v>
           </cell>
           <cell r="M7">
-            <v>36.21</v>
+            <v>44539</v>
           </cell>
           <cell r="N7">
-            <v>27.35</v>
+            <v>37.75</v>
           </cell>
           <cell r="O7">
-            <v>8.86</v>
+            <v>100</v>
           </cell>
           <cell r="P7">
-            <v>28.82</v>
+            <v>5</v>
           </cell>
           <cell r="Q7">
-            <v>0.851063829787233</v>
+            <v>3.775</v>
           </cell>
           <cell r="R7">
-            <v>30.89</v>
+            <v>0.0755</v>
           </cell>
           <cell r="S7">
-            <v>0</v>
+            <v>3766.1495</v>
           </cell>
           <cell r="T7">
-            <v>44539</v>
-          </cell>
-          <cell r="U7">
-            <v>37.75</v>
-          </cell>
-          <cell r="V7">
-            <v>100</v>
-          </cell>
-          <cell r="W7">
-            <v>5</v>
-          </cell>
-          <cell r="X7">
-            <v>3.775</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.0755</v>
-          </cell>
-          <cell r="Z7">
-            <v>3766.1495</v>
-          </cell>
-          <cell r="AA7">
-            <v>38.83</v>
-          </cell>
-          <cell r="AB7">
-            <v>36.3</v>
-          </cell>
-          <cell r="AC7">
-            <v>0.57312252964427</v>
-          </cell>
-          <cell r="AD7">
             <v>491.0841</v>
-          </cell>
-          <cell r="AE7">
-            <v>32.7</v>
-          </cell>
-          <cell r="AF7">
-            <v>37.75</v>
           </cell>
         </row>
         <row r="8">
@@ -1529,72 +1431,36 @@
             <v>7212</v>
           </cell>
           <cell r="K8">
-            <v>74.5</v>
+            <v>67.53</v>
           </cell>
           <cell r="L8">
-            <v>70.4</v>
+            <v>0</v>
           </cell>
           <cell r="M8">
-            <v>75.02</v>
+            <v>44543</v>
           </cell>
           <cell r="N8">
-            <v>62.33</v>
+            <v>72.45</v>
           </cell>
           <cell r="O8">
-            <v>12.69</v>
+            <v>100</v>
           </cell>
           <cell r="P8">
-            <v>6.49</v>
+            <v>5</v>
           </cell>
           <cell r="Q8">
-            <v>0.592682926829271</v>
+            <v>7.245</v>
           </cell>
           <cell r="R8">
-            <v>67.53</v>
+            <v>0</v>
           </cell>
           <cell r="S8">
-            <v>0</v>
+            <v>7232.755</v>
           </cell>
           <cell r="T8">
-            <v>44543</v>
-          </cell>
-          <cell r="U8">
-            <v>72.45</v>
-          </cell>
-          <cell r="V8">
-            <v>100</v>
-          </cell>
-          <cell r="W8">
-            <v>5</v>
-          </cell>
-          <cell r="X8">
-            <v>7.245</v>
-          </cell>
-          <cell r="Y8">
-            <v>0</v>
-          </cell>
-          <cell r="Z8">
-            <v>7232.755</v>
-          </cell>
-          <cell r="AA8">
-            <v>73</v>
-          </cell>
-          <cell r="AB8">
-            <v>71.75</v>
-          </cell>
-          <cell r="AC8">
-            <v>0.560000000000002</v>
-          </cell>
-          <cell r="AD8">
             <v>20.7550000000001</v>
           </cell>
-          <cell r="AE8">
-            <v>72.07</v>
-          </cell>
-          <cell r="AF8">
-            <v>72.45</v>
-          </cell>
-          <cell r="AG8" t="str">
+          <cell r="U8" t="str">
             <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
 2.跳空时，不要入场。不然就有可能入场太早。</v>
           </cell>
@@ -1630,72 +1496,36 @@
           <cell r="J9">
             <v>3059.06108</v>
           </cell>
-          <cell r="K9">
-            <v>30.72</v>
-          </cell>
-          <cell r="L9">
-            <v>29.33</v>
-          </cell>
-          <cell r="M9">
-            <v>32.43</v>
-          </cell>
-          <cell r="N9">
-            <v>26.16</v>
-          </cell>
-          <cell r="O9">
-            <v>6.27</v>
-          </cell>
-          <cell r="P9">
-            <v>38.46</v>
-          </cell>
-          <cell r="Q9">
-            <v>0.129496402877698</v>
-          </cell>
         </row>
         <row r="9">
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>44525</v>
+          </cell>
+          <cell r="N9">
+            <v>30.15</v>
+          </cell>
+          <cell r="O9">
+            <v>100</v>
+          </cell>
+          <cell r="P9">
+            <v>5</v>
+          </cell>
+          <cell r="Q9">
+            <v>3.015</v>
+          </cell>
+          <cell r="R9">
+            <v>0.0603</v>
+          </cell>
           <cell r="S9">
-            <v>0</v>
+            <v>3006.9247</v>
           </cell>
           <cell r="T9">
-            <v>44525</v>
-          </cell>
-          <cell r="U9">
-            <v>30.15</v>
-          </cell>
-          <cell r="V9">
-            <v>100</v>
-          </cell>
-          <cell r="W9">
-            <v>5</v>
-          </cell>
-          <cell r="X9">
-            <v>3.015</v>
-          </cell>
-          <cell r="Y9">
-            <v>0.0603</v>
-          </cell>
-          <cell r="Z9">
-            <v>3006.9247</v>
-          </cell>
-          <cell r="AA9">
-            <v>30.69</v>
-          </cell>
-          <cell r="AB9">
-            <v>30.01</v>
-          </cell>
-          <cell r="AC9">
-            <v>0.205882352941172</v>
-          </cell>
-          <cell r="AD9">
             <v>-52.1363799999999</v>
           </cell>
-          <cell r="AE9">
-            <v>30.54</v>
-          </cell>
-          <cell r="AF9">
-            <v>30.15</v>
-          </cell>
-          <cell r="AG9" t="str">
+          <cell r="U9" t="str">
             <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
@@ -1730,72 +1560,36 @@
           <cell r="J10">
             <v>2986.05962</v>
           </cell>
-          <cell r="K10">
-            <v>30.32</v>
-          </cell>
-          <cell r="L10">
-            <v>28.81</v>
-          </cell>
-          <cell r="M10">
-            <v>31.18</v>
-          </cell>
-          <cell r="N10">
-            <v>21.1</v>
-          </cell>
-          <cell r="O10">
-            <v>10.08</v>
-          </cell>
-          <cell r="P10">
-            <v>17.95</v>
-          </cell>
-          <cell r="Q10">
-            <v>0.337748344370862</v>
-          </cell>
         </row>
         <row r="10">
+          <cell r="L10">
+            <v>0</v>
+          </cell>
+          <cell r="M10">
+            <v>44533</v>
+          </cell>
+          <cell r="N10">
+            <v>27.83</v>
+          </cell>
+          <cell r="O10">
+            <v>100</v>
+          </cell>
+          <cell r="P10">
+            <v>5</v>
+          </cell>
+          <cell r="Q10">
+            <v>2.783</v>
+          </cell>
+          <cell r="R10">
+            <v>0.05566</v>
+          </cell>
           <cell r="S10">
-            <v>0</v>
+            <v>2775.16134</v>
           </cell>
           <cell r="T10">
-            <v>44533</v>
-          </cell>
-          <cell r="U10">
-            <v>27.83</v>
-          </cell>
-          <cell r="V10">
-            <v>100</v>
-          </cell>
-          <cell r="W10">
-            <v>5</v>
-          </cell>
-          <cell r="X10">
-            <v>2.783</v>
-          </cell>
-          <cell r="Y10">
-            <v>0.05566</v>
-          </cell>
-          <cell r="Z10">
-            <v>2775.16134</v>
-          </cell>
-          <cell r="AA10">
-            <v>28.4</v>
-          </cell>
-          <cell r="AB10">
-            <v>27.44</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.406249999999998</v>
-          </cell>
-          <cell r="AD10">
             <v>-210.89828</v>
           </cell>
-          <cell r="AE10">
-            <v>29.81</v>
-          </cell>
-          <cell r="AF10">
-            <v>27.83</v>
-          </cell>
-          <cell r="AG10" t="str">
+          <cell r="U10" t="str">
             <v>1.入场中枢点错误</v>
           </cell>
         </row>
@@ -1831,72 +1625,36 @@
             <v>2842</v>
           </cell>
           <cell r="K11">
-            <v>29.7</v>
+            <v>26.31</v>
           </cell>
           <cell r="L11">
-            <v>27.69</v>
+            <v>0</v>
           </cell>
           <cell r="M11">
-            <v>30.41</v>
+            <v>44537</v>
           </cell>
           <cell r="N11">
-            <v>22.76</v>
+            <v>26.7</v>
           </cell>
           <cell r="O11">
-            <v>7.65</v>
+            <v>100</v>
           </cell>
           <cell r="P11">
-            <v>25.15</v>
+            <v>5</v>
           </cell>
           <cell r="Q11">
-            <v>0.661691542288557</v>
+            <v>2.67</v>
           </cell>
           <cell r="R11">
-            <v>26.31</v>
+            <v>0</v>
           </cell>
           <cell r="S11">
-            <v>0</v>
+            <v>2662.33</v>
           </cell>
           <cell r="T11">
-            <v>44537</v>
-          </cell>
-          <cell r="U11">
-            <v>26.7</v>
-          </cell>
-          <cell r="V11">
-            <v>100</v>
-          </cell>
-          <cell r="W11">
-            <v>5</v>
-          </cell>
-          <cell r="X11">
-            <v>2.67</v>
-          </cell>
-          <cell r="Y11">
-            <v>0</v>
-          </cell>
-          <cell r="Z11">
-            <v>2662.33</v>
-          </cell>
-          <cell r="AA11">
-            <v>28.18</v>
-          </cell>
-          <cell r="AB11">
-            <v>25.99</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.324200913242009</v>
-          </cell>
-          <cell r="AD11">
             <v>-179.67</v>
           </cell>
-          <cell r="AE11">
-            <v>28.37</v>
-          </cell>
-          <cell r="AF11">
-            <v>26.7</v>
-          </cell>
-          <cell r="AG11" t="str">
+          <cell r="U11" t="str">
             <v>1.宁可错过，不要根据临时计划入场。
 2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
 3.作出出场决定是使用止损线倒逼出场。
@@ -1935,72 +1693,36 @@
             <v>7551.15092</v>
           </cell>
           <cell r="K12">
-            <v>38.32</v>
+            <v>34.55</v>
           </cell>
           <cell r="L12">
-            <v>37.15</v>
+            <v>0</v>
           </cell>
           <cell r="M12">
-            <v>40.11</v>
+            <v>44554</v>
           </cell>
           <cell r="N12">
-            <v>30.85</v>
+            <v>34.52</v>
           </cell>
           <cell r="O12">
-            <v>9.26</v>
+            <v>100</v>
           </cell>
           <cell r="P12">
-            <v>33.58</v>
+            <v>5</v>
           </cell>
           <cell r="Q12">
-            <v>0.504273504273506</v>
+            <v>3.452</v>
           </cell>
           <cell r="R12">
-            <v>34.55</v>
+            <v>0.06904</v>
           </cell>
           <cell r="S12">
-            <v>0</v>
+            <v>3443.47896</v>
           </cell>
           <cell r="T12">
-            <v>44554</v>
-          </cell>
-          <cell r="U12">
-            <v>34.52</v>
-          </cell>
-          <cell r="V12">
-            <v>100</v>
-          </cell>
-          <cell r="W12">
-            <v>5</v>
-          </cell>
-          <cell r="X12">
-            <v>3.452</v>
-          </cell>
-          <cell r="Y12">
-            <v>0.6904</v>
-          </cell>
-          <cell r="Z12">
-            <v>3442.8576</v>
-          </cell>
-          <cell r="AA12">
-            <v>35.07</v>
-          </cell>
-          <cell r="AB12">
-            <v>33.85</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.549180327868854</v>
-          </cell>
-          <cell r="AD12">
-            <v>-1329.93008</v>
-          </cell>
-          <cell r="AE12">
-            <v>37.86</v>
-          </cell>
-          <cell r="AF12">
-            <v>34.6266666666667</v>
-          </cell>
-          <cell r="AG12" t="str">
+            <v>-1327.436</v>
+          </cell>
+          <cell r="U12" t="str">
             <v>1.错过了卖出时机，要关注周线图的基底
 2.加仓时要同步上移止损线到新的支撑位</v>
           </cell>
@@ -2037,80 +1759,54 @@
             <v>7603.15196</v>
           </cell>
           <cell r="K13">
-            <v>38.32</v>
+            <v>34.68</v>
           </cell>
           <cell r="L13">
-            <v>37.15</v>
+            <v>0</v>
           </cell>
           <cell r="M13">
-            <v>40.11</v>
+            <v>44553</v>
           </cell>
           <cell r="N13">
-            <v>30.85</v>
+            <v>34.68</v>
           </cell>
           <cell r="O13">
-            <v>9.26</v>
+            <v>200</v>
           </cell>
           <cell r="P13">
-            <v>33.58</v>
+            <v>5</v>
           </cell>
           <cell r="Q13">
-            <v>0.28205128205128</v>
+            <v>6.936</v>
           </cell>
           <cell r="R13">
-            <v>34.68</v>
+            <v>0.13872</v>
           </cell>
           <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>44553</v>
-          </cell>
-          <cell r="U13">
-            <v>34.68</v>
-          </cell>
-          <cell r="V13">
-            <v>200</v>
-          </cell>
-          <cell r="W13">
-            <v>5</v>
-          </cell>
-          <cell r="X13">
-            <v>6.936</v>
-          </cell>
-          <cell r="Y13">
-            <v>1.3872</v>
-          </cell>
-          <cell r="Z13">
-            <v>6922.6768</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AC13" t="e">
-            <v>#DIV/0!</v>
+            <v>6923.92528</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="T14">
+          <cell r="M14">
             <v>44554</v>
           </cell>
-          <cell r="U14">
+          <cell r="N14">
             <v>34.68</v>
           </cell>
-          <cell r="V14">
+          <cell r="O14">
             <v>100</v>
           </cell>
-          <cell r="W14">
+          <cell r="P14">
             <v>5</v>
           </cell>
-          <cell r="X14">
+          <cell r="Q14">
             <v>3.468</v>
           </cell>
-          <cell r="Y14">
-            <v>0.6936</v>
-          </cell>
-          <cell r="Z14">
-            <v>3458.8384</v>
+          <cell r="R14">
+            <v>0.06936</v>
+          </cell>
+          <cell r="S14">
+            <v>3459.46264</v>
           </cell>
         </row>
         <row r="15">
@@ -2145,72 +1841,36 @@
             <v>11602</v>
           </cell>
           <cell r="K15">
-            <v>118</v>
+            <v>110.4</v>
           </cell>
           <cell r="L15">
-            <v>113.58</v>
+            <v>0</v>
           </cell>
           <cell r="M15">
-            <v>128.61</v>
+            <v>44543</v>
           </cell>
           <cell r="N15">
-            <v>102.72</v>
+            <v>111.66</v>
           </cell>
           <cell r="O15">
-            <v>25.89</v>
+            <v>100</v>
           </cell>
           <cell r="P15">
-            <v>50.45</v>
+            <v>5</v>
           </cell>
           <cell r="Q15">
-            <v>0.459276018099548</v>
+            <v>11.166</v>
           </cell>
           <cell r="R15">
-            <v>110.4</v>
+            <v>0.22332</v>
           </cell>
           <cell r="S15">
-            <v>0</v>
+            <v>11149.61068</v>
           </cell>
           <cell r="T15">
-            <v>44543</v>
-          </cell>
-          <cell r="U15">
-            <v>111.66</v>
-          </cell>
-          <cell r="V15">
-            <v>100</v>
-          </cell>
-          <cell r="W15">
-            <v>5</v>
-          </cell>
-          <cell r="X15">
-            <v>11.166</v>
-          </cell>
-          <cell r="Y15">
-            <v>2.2332</v>
-          </cell>
-          <cell r="Z15">
-            <v>11147.6008</v>
-          </cell>
-          <cell r="AA15">
-            <v>115.99</v>
-          </cell>
-          <cell r="AB15">
-            <v>110.08</v>
-          </cell>
-          <cell r="AC15">
-            <v>0.267343485617597</v>
-          </cell>
-          <cell r="AD15">
-            <v>-454.3992</v>
-          </cell>
-          <cell r="AE15">
-            <v>115.97</v>
-          </cell>
-          <cell r="AF15">
-            <v>111.66</v>
-          </cell>
-          <cell r="AG15" t="str">
+            <v>-452.389319999998</v>
+          </cell>
+          <cell r="U15" t="str">
             <v>1.对交易减少量缺乏关注；
 2.对网球行为缺乏关注；
 3.对低突破高交易量重回低位缺乏关注;</v>
@@ -2248,70 +1908,34 @@
             <v>3920.0783</v>
           </cell>
           <cell r="K16">
-            <v>39.16</v>
+            <v>35.91</v>
           </cell>
           <cell r="L16">
-            <v>37.55</v>
+            <v>0</v>
           </cell>
           <cell r="M16">
-            <v>41.07</v>
+            <v>44547</v>
           </cell>
           <cell r="N16">
-            <v>32.21</v>
+            <v>35.9</v>
           </cell>
           <cell r="O16">
-            <v>8.86</v>
+            <v>100</v>
           </cell>
           <cell r="P16">
-            <v>14.76</v>
+            <v>5</v>
           </cell>
           <cell r="Q16">
-            <v>0.00621118012422237</v>
+            <v>3.59</v>
           </cell>
           <cell r="R16">
-            <v>35.91</v>
+            <v>0.0718</v>
           </cell>
           <cell r="S16">
-            <v>0</v>
+            <v>3581.3382</v>
           </cell>
           <cell r="T16">
-            <v>44547</v>
-          </cell>
-          <cell r="U16">
-            <v>35.9</v>
-          </cell>
-          <cell r="V16">
-            <v>100</v>
-          </cell>
-          <cell r="W16">
-            <v>5</v>
-          </cell>
-          <cell r="X16">
-            <v>3.59</v>
-          </cell>
-          <cell r="Y16">
-            <v>0.718</v>
-          </cell>
-          <cell r="Z16">
-            <v>3580.692</v>
-          </cell>
-          <cell r="AA16">
-            <v>36.86</v>
-          </cell>
-          <cell r="AB16">
-            <v>35.6</v>
-          </cell>
-          <cell r="AC16">
-            <v>0.238095238095236</v>
-          </cell>
-          <cell r="AD16">
-            <v>-339.3863</v>
-          </cell>
-          <cell r="AE16">
-            <v>39.15</v>
-          </cell>
-          <cell r="AF16">
-            <v>35.9</v>
+            <v>-338.7401</v>
           </cell>
         </row>
         <row r="17">
@@ -2346,70 +1970,34 @@
             <v>6435.1286</v>
           </cell>
           <cell r="K17">
-            <v>64.47</v>
+            <v>58.51</v>
           </cell>
           <cell r="L17">
-            <v>59.34</v>
+            <v>0</v>
           </cell>
           <cell r="M17">
-            <v>69.25</v>
+            <v>44545</v>
           </cell>
           <cell r="N17">
-            <v>52.2</v>
+            <v>60.67</v>
           </cell>
           <cell r="O17">
-            <v>17.05</v>
+            <v>100</v>
           </cell>
           <cell r="P17">
-            <v>100.55</v>
+            <v>5</v>
           </cell>
           <cell r="Q17">
-            <v>0.0331384015594546</v>
+            <v>6.067</v>
           </cell>
           <cell r="R17">
-            <v>58.51</v>
+            <v>0.12134</v>
           </cell>
           <cell r="S17">
-            <v>0</v>
+            <v>6055.81166</v>
           </cell>
           <cell r="T17">
-            <v>44545</v>
-          </cell>
-          <cell r="U17">
-            <v>60.67</v>
-          </cell>
-          <cell r="V17">
-            <v>100</v>
-          </cell>
-          <cell r="W17">
-            <v>5</v>
-          </cell>
-          <cell r="X17">
-            <v>6.067</v>
-          </cell>
-          <cell r="Y17">
-            <v>1.2134</v>
-          </cell>
-          <cell r="Z17">
-            <v>6054.7196</v>
-          </cell>
-          <cell r="AA17">
-            <v>64.29</v>
-          </cell>
-          <cell r="AB17">
-            <v>60.28</v>
-          </cell>
-          <cell r="AC17">
-            <v>0.0972568578553616</v>
-          </cell>
-          <cell r="AD17">
-            <v>-380.409</v>
-          </cell>
-          <cell r="AE17">
-            <v>64.3</v>
-          </cell>
-          <cell r="AF17">
-            <v>60.67</v>
+            <v>-379.31694</v>
           </cell>
         </row>
         <row r="18">
@@ -2444,64 +2032,34 @@
             <v>1706.03402</v>
           </cell>
           <cell r="K18">
-            <v>17.5</v>
+            <v>15.5</v>
           </cell>
           <cell r="L18">
-            <v>16.48</v>
+            <v>0</v>
           </cell>
           <cell r="M18">
-            <v>18.44</v>
+            <v>44558</v>
           </cell>
           <cell r="N18">
-            <v>14.86</v>
+            <v>15.65</v>
           </cell>
           <cell r="O18">
-            <v>3.58</v>
+            <v>100</v>
           </cell>
           <cell r="P18">
-            <v>85.91</v>
+            <v>5</v>
           </cell>
           <cell r="Q18">
-            <v>0.480392156862744</v>
+            <v>1.565</v>
           </cell>
           <cell r="R18">
-            <v>15.5</v>
+            <v>0.0313</v>
           </cell>
           <cell r="S18">
-            <v>0</v>
+            <v>1558.4037</v>
           </cell>
           <cell r="T18">
-            <v>44558</v>
-          </cell>
-          <cell r="U18">
-            <v>15.65</v>
-          </cell>
-          <cell r="V18">
-            <v>100</v>
-          </cell>
-          <cell r="W18">
-            <v>5</v>
-          </cell>
-          <cell r="X18">
-            <v>1.565</v>
-          </cell>
-          <cell r="Y18">
-            <v>0.313</v>
-          </cell>
-          <cell r="Z18">
-            <v>1558.122</v>
-          </cell>
-          <cell r="AA18">
-            <v>15.69</v>
-          </cell>
-          <cell r="AB18">
-            <v>15.05</v>
-          </cell>
-          <cell r="AC18">
-            <v>0.937500000000001</v>
-          </cell>
-          <cell r="AD18">
-            <v>-147.91202</v>
+            <v>-147.63032</v>
           </cell>
         </row>
         <row r="19">
@@ -2536,64 +2094,34 @@
             <v>3443.06876</v>
           </cell>
           <cell r="K19">
-            <v>17.5</v>
+            <v>15.5</v>
           </cell>
           <cell r="L19">
-            <v>16.48</v>
+            <v>0</v>
           </cell>
           <cell r="M19">
-            <v>18.44</v>
+            <v>44558</v>
           </cell>
           <cell r="N19">
-            <v>14.86</v>
+            <v>15.65</v>
           </cell>
           <cell r="O19">
-            <v>3.58</v>
+            <v>200</v>
           </cell>
           <cell r="P19">
-            <v>85.91</v>
+            <v>5</v>
           </cell>
           <cell r="Q19">
-            <v>0.30392156862745</v>
+            <v>3.13</v>
           </cell>
           <cell r="R19">
-            <v>15.5</v>
+            <v>0.0626</v>
           </cell>
           <cell r="S19">
-            <v>0</v>
+            <v>3121.8074</v>
           </cell>
           <cell r="T19">
-            <v>44558</v>
-          </cell>
-          <cell r="U19">
-            <v>15.65</v>
-          </cell>
-          <cell r="V19">
-            <v>200</v>
-          </cell>
-          <cell r="W19">
-            <v>5</v>
-          </cell>
-          <cell r="X19">
-            <v>3.13</v>
-          </cell>
-          <cell r="Y19">
-            <v>0.626</v>
-          </cell>
-          <cell r="Z19">
-            <v>3121.244</v>
-          </cell>
-          <cell r="AA19">
-            <v>15.69</v>
-          </cell>
-          <cell r="AB19">
-            <v>15.05</v>
-          </cell>
-          <cell r="AC19">
-            <v>0.937500000000001</v>
-          </cell>
-          <cell r="AD19">
-            <v>-321.82476</v>
+            <v>-321.261360000001</v>
           </cell>
         </row>
         <row r="20">
@@ -2628,46 +2156,34 @@
             <v>6480.1295</v>
           </cell>
           <cell r="K20">
-            <v>65.9</v>
+            <v>59.29</v>
           </cell>
           <cell r="L20">
-            <v>60.17</v>
+            <v>0</v>
           </cell>
           <cell r="M20">
-            <v>67.42</v>
+            <v>44559</v>
           </cell>
           <cell r="N20">
-            <v>46.04</v>
+            <v>67.9</v>
           </cell>
           <cell r="O20">
-            <v>21.38</v>
+            <v>100</v>
           </cell>
           <cell r="P20">
-            <v>35.75</v>
+            <v>5</v>
           </cell>
           <cell r="Q20">
-            <v>0.200698080279233</v>
+            <v>6.79</v>
           </cell>
           <cell r="R20">
-            <v>59.29</v>
+            <v>0.1358</v>
           </cell>
           <cell r="S20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="X20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Z20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AC20" t="e">
-            <v>#DIV/0!</v>
+            <v>6778.0742</v>
+          </cell>
+          <cell r="T20">
+            <v>297.944700000001</v>
           </cell>
         </row>
         <row r="21">
@@ -2702,70 +2218,34 @@
             <v>2788</v>
           </cell>
           <cell r="K21">
-            <v>28.87</v>
+            <v>26</v>
           </cell>
           <cell r="L21">
-            <v>26.48</v>
+            <v>0</v>
           </cell>
           <cell r="M21">
-            <v>28.31</v>
+            <v>44553</v>
           </cell>
           <cell r="N21">
-            <v>22.8</v>
+            <v>26.02</v>
           </cell>
           <cell r="O21">
-            <v>5.51</v>
+            <v>100</v>
           </cell>
           <cell r="P21">
-            <v>16.09</v>
+            <v>5</v>
           </cell>
           <cell r="Q21">
-            <v>0.435146443514645</v>
+            <v>2.602</v>
           </cell>
           <cell r="R21">
-            <v>26</v>
+            <v>0</v>
           </cell>
           <cell r="S21">
-            <v>0</v>
+            <v>2594.398</v>
           </cell>
           <cell r="T21">
-            <v>44553</v>
-          </cell>
-          <cell r="U21">
-            <v>26.02</v>
-          </cell>
-          <cell r="V21">
-            <v>100</v>
-          </cell>
-          <cell r="W21">
-            <v>5</v>
-          </cell>
-          <cell r="X21">
-            <v>2.602</v>
-          </cell>
-          <cell r="Y21">
-            <v>0</v>
-          </cell>
-          <cell r="Z21">
-            <v>2594.398</v>
-          </cell>
-          <cell r="AA21">
-            <v>26.77</v>
-          </cell>
-          <cell r="AB21">
-            <v>25.9</v>
-          </cell>
-          <cell r="AC21">
-            <v>0.13793103448276</v>
-          </cell>
-          <cell r="AD21">
             <v>-193.602</v>
-          </cell>
-          <cell r="AE21">
-            <v>27.83</v>
-          </cell>
-          <cell r="AF21">
-            <v>26.02</v>
           </cell>
         </row>
         <row r="22">
@@ -2800,46 +2280,31 @@
             <v>3915.0782</v>
           </cell>
           <cell r="K22">
-            <v>41.2</v>
+            <v>35.6</v>
           </cell>
           <cell r="L22">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="M22">
-            <v>42.71</v>
+            <v>44566</v>
           </cell>
           <cell r="N22">
-            <v>30.54</v>
+            <v>41.15</v>
           </cell>
           <cell r="O22">
-            <v>12.17</v>
+            <v>100</v>
           </cell>
           <cell r="P22">
-            <v>14.89</v>
+            <v>5</v>
           </cell>
           <cell r="Q22">
-            <v>0.65625</v>
+            <v>4.115</v>
           </cell>
           <cell r="R22">
-            <v>35.6</v>
+            <v>0.0823</v>
           </cell>
           <cell r="S22">
-            <v>360.0782</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="X22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="Z22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AC22" t="e">
-            <v>#DIV/0!</v>
+            <v>4105.8027</v>
           </cell>
         </row>
         <row r="23">
@@ -2874,70 +2339,34 @@
             <v>7785.1556</v>
           </cell>
           <cell r="K23">
-            <v>38.95</v>
+            <v>37</v>
           </cell>
           <cell r="L23">
-            <v>37.47</v>
+            <v>0</v>
           </cell>
           <cell r="M23">
-            <v>40.39</v>
+            <v>44554</v>
           </cell>
           <cell r="N23">
-            <v>32.08</v>
+            <v>43.97</v>
           </cell>
           <cell r="O23">
-            <v>8.31</v>
+            <v>200</v>
           </cell>
           <cell r="P23">
-            <v>41.56</v>
+            <v>5</v>
           </cell>
           <cell r="Q23">
-            <v>0.0337837837837866</v>
+            <v>8.794</v>
           </cell>
           <cell r="R23">
-            <v>37</v>
+            <v>0.17588</v>
           </cell>
           <cell r="S23">
-            <v>0</v>
+            <v>8780.03012</v>
           </cell>
           <cell r="T23">
-            <v>44554</v>
-          </cell>
-          <cell r="U23">
-            <v>43.97</v>
-          </cell>
-          <cell r="V23">
-            <v>200</v>
-          </cell>
-          <cell r="W23">
-            <v>5</v>
-          </cell>
-          <cell r="X23">
-            <v>8.794</v>
-          </cell>
-          <cell r="Y23">
-            <v>1.7588</v>
-          </cell>
-          <cell r="Z23">
-            <v>8778.4472</v>
-          </cell>
-          <cell r="AA23">
-            <v>45.9</v>
-          </cell>
-          <cell r="AB23">
-            <v>42.77</v>
-          </cell>
-          <cell r="AC23">
-            <v>0.383386581469648</v>
-          </cell>
-          <cell r="AD23">
-            <v>993.2916</v>
-          </cell>
-          <cell r="AE23">
-            <v>38.9</v>
-          </cell>
-          <cell r="AF23">
-            <v>43.97</v>
+            <v>994.874519999999</v>
           </cell>
         </row>
         <row r="24">
@@ -2972,195 +2401,165 @@
             <v>18521</v>
           </cell>
           <cell r="K24">
-            <v>65.65</v>
+            <v>59.3</v>
           </cell>
           <cell r="L24">
-            <v>60.7</v>
+            <v>0</v>
           </cell>
           <cell r="M24">
-            <v>65.61</v>
+            <v>44565</v>
           </cell>
           <cell r="N24">
-            <v>51.84</v>
+            <v>59.5</v>
           </cell>
           <cell r="O24">
-            <v>13.77</v>
+            <v>200</v>
           </cell>
           <cell r="P24">
-            <v>35.28</v>
+            <v>5</v>
           </cell>
           <cell r="Q24">
-            <v>0.793939393939395</v>
+            <v>11.9</v>
           </cell>
           <cell r="R24">
-            <v>59.3</v>
+            <v>0</v>
           </cell>
           <cell r="S24">
-            <v>736</v>
+            <v>11883.1</v>
+          </cell>
+          <cell r="T24">
+            <v>-718.830000000002</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="A25" t="str">
+          <cell r="L25">
+            <v>0</v>
+          </cell>
+          <cell r="M25">
+            <v>44565</v>
+          </cell>
+          <cell r="N25">
+            <v>59.3</v>
+          </cell>
+          <cell r="O25">
+            <v>100</v>
+          </cell>
+          <cell r="P25">
+            <v>5</v>
+          </cell>
+          <cell r="Q25">
+            <v>5.93</v>
+          </cell>
+          <cell r="R25">
+            <v>0</v>
+          </cell>
+          <cell r="S25">
+            <v>5919.07</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
             <v>JG_0000021</v>
           </cell>
-          <cell r="B25" t="str">
+          <cell r="B26" t="str">
             <v>JH_00031</v>
           </cell>
-          <cell r="C25">
+          <cell r="C26">
             <v>600587</v>
           </cell>
-          <cell r="D25" t="str">
+          <cell r="D26" t="str">
             <v>新华医疗</v>
           </cell>
-          <cell r="E25">
+          <cell r="E26">
             <v>44557</v>
           </cell>
-          <cell r="F25">
+          <cell r="F26">
             <v>29.57</v>
           </cell>
-          <cell r="G25">
+          <cell r="G26">
             <v>600</v>
           </cell>
-          <cell r="H25">
+          <cell r="H26">
             <v>5</v>
           </cell>
-          <cell r="I25">
+          <cell r="I26">
             <v>0.35484</v>
           </cell>
-          <cell r="J25">
+          <cell r="J26">
             <v>17747.35484</v>
           </cell>
-          <cell r="K25">
-            <v>31.37</v>
-          </cell>
-          <cell r="L25">
-            <v>29.1</v>
-          </cell>
-          <cell r="M25">
-            <v>31.85</v>
-          </cell>
-          <cell r="N25">
-            <v>23.34</v>
-          </cell>
-          <cell r="O25">
-            <v>8.51</v>
-          </cell>
-          <cell r="P25">
-            <v>25.83</v>
-          </cell>
-          <cell r="Q25">
-            <v>0.792951541850221</v>
-          </cell>
-          <cell r="R25">
+          <cell r="K26">
             <v>27.05</v>
           </cell>
-          <cell r="S25">
-            <v>766.35484</v>
-          </cell>
-          <cell r="T25">
+          <cell r="L26">
+            <v>0</v>
+          </cell>
+          <cell r="M26">
             <v>44558</v>
           </cell>
-          <cell r="U25">
+          <cell r="N26">
             <v>31.39</v>
           </cell>
-          <cell r="V25">
+          <cell r="O26">
             <v>300</v>
           </cell>
-          <cell r="W25">
+          <cell r="P26">
             <v>5</v>
           </cell>
-          <cell r="X25">
+          <cell r="Q26">
             <v>9.417</v>
           </cell>
-          <cell r="Y25">
-            <v>1.8834</v>
-          </cell>
-          <cell r="Z25">
-            <v>9400.6996</v>
-          </cell>
-          <cell r="AA25">
-            <v>31.59</v>
-          </cell>
-          <cell r="AB25">
-            <v>30.01</v>
-          </cell>
-          <cell r="AC25">
-            <v>0.873417721518988</v>
-          </cell>
-          <cell r="AD25">
-            <v>527.02218</v>
+          <cell r="R26">
+            <v>0.18834</v>
+          </cell>
+          <cell r="S26">
+            <v>9402.39466</v>
+          </cell>
+          <cell r="T26">
+            <v>362.144400000001</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27" t="str">
-            <v>JG_0000022</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>JH_00038</v>
-          </cell>
-          <cell r="C27">
-            <v>603599</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>广信股份</v>
-          </cell>
-          <cell r="E27">
-            <v>44558</v>
-          </cell>
-          <cell r="F27">
-            <v>40.38</v>
-          </cell>
-          <cell r="G27">
-            <v>200</v>
-          </cell>
-          <cell r="H27">
+          <cell r="M27">
+            <v>44568</v>
+          </cell>
+          <cell r="N27">
+            <v>29.07</v>
+          </cell>
+          <cell r="O27">
+            <v>300</v>
+          </cell>
+          <cell r="P27">
             <v>5</v>
           </cell>
-          <cell r="I27">
-            <v>0.16152</v>
-          </cell>
-          <cell r="J27">
-            <v>8081.16152</v>
-          </cell>
-          <cell r="K27">
-            <v>41.06</v>
-          </cell>
-          <cell r="L27">
-            <v>38.43</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="P27">
-            <v>15.12</v>
-          </cell>
           <cell r="Q27">
-            <v>0.258555133079848</v>
+            <v>8.721</v>
           </cell>
           <cell r="R27">
-            <v>38</v>
+            <v>0.17442</v>
           </cell>
           <cell r="S27">
-            <v>486.161520000001</v>
+            <v>8707.10458</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>JG_0000023</v>
+            <v>JG_0000022</v>
           </cell>
           <cell r="B28" t="str">
-            <v>JH_00026</v>
+            <v>JH_00038</v>
           </cell>
           <cell r="C28">
-            <v>603995</v>
+            <v>603599</v>
           </cell>
           <cell r="D28" t="str">
-            <v>甬金股份</v>
+            <v>广信股份</v>
           </cell>
           <cell r="E28">
             <v>44558</v>
           </cell>
           <cell r="F28">
-            <v>55.97</v>
+            <v>40.38</v>
           </cell>
           <cell r="G28">
             <v>200</v>
@@ -3169,30 +2568,524 @@
             <v>5</v>
           </cell>
           <cell r="I28">
+            <v>0.16152</v>
+          </cell>
+          <cell r="J28">
+            <v>8081.16152</v>
+          </cell>
+          <cell r="K28">
+            <v>38</v>
+          </cell>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="M28">
+            <v>44566</v>
+          </cell>
+          <cell r="N28">
+            <v>38.42</v>
+          </cell>
+          <cell r="O28">
+            <v>200</v>
+          </cell>
+          <cell r="P28">
+            <v>5</v>
+          </cell>
+          <cell r="Q28">
+            <v>7.684</v>
+          </cell>
+          <cell r="R28">
+            <v>0.15368</v>
+          </cell>
+          <cell r="S28">
+            <v>7671.16232</v>
+          </cell>
+          <cell r="T28">
+            <v>-409.999200000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>JG_0000023</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>JH_00026</v>
+          </cell>
+          <cell r="C29">
+            <v>603995</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>甬金股份</v>
+          </cell>
+          <cell r="E29">
+            <v>44558</v>
+          </cell>
+          <cell r="F29">
+            <v>55.97</v>
+          </cell>
+          <cell r="G29">
+            <v>200</v>
+          </cell>
+          <cell r="H29">
+            <v>5</v>
+          </cell>
+          <cell r="I29">
             <v>0.22388</v>
           </cell>
-          <cell r="J28">
+          <cell r="J29">
             <v>11199.22388</v>
           </cell>
-          <cell r="K28">
-            <v>59</v>
-          </cell>
-          <cell r="L28">
-            <v>54.81</v>
+          <cell r="K29">
+            <v>52</v>
+          </cell>
+          <cell r="L29">
+            <v>804.22388</v>
           </cell>
         </row>
-        <row r="28">
-          <cell r="P28">
-            <v>21.87</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.723150357995227</v>
-          </cell>
-          <cell r="R28">
-            <v>52</v>
-          </cell>
-          <cell r="S28">
-            <v>804.22388</v>
+        <row r="29">
+          <cell r="Q29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>JG_0000024</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>JH_00036</v>
+          </cell>
+          <cell r="C30">
+            <v>603279</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>景津环保</v>
+          </cell>
+          <cell r="E30">
+            <v>44559</v>
+          </cell>
+          <cell r="F30">
+            <v>45.46</v>
+          </cell>
+          <cell r="G30">
+            <v>200</v>
+          </cell>
+          <cell r="H30">
+            <v>5</v>
+          </cell>
+          <cell r="I30">
+            <v>0.18184</v>
+          </cell>
+          <cell r="J30">
+            <v>9097.18184</v>
+          </cell>
+          <cell r="K30">
+            <v>42.5</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+          <cell r="M30">
+            <v>44561</v>
+          </cell>
+          <cell r="N30">
+            <v>46</v>
+          </cell>
+          <cell r="O30">
+            <v>200</v>
+          </cell>
+          <cell r="P30">
+            <v>5</v>
+          </cell>
+          <cell r="Q30">
+            <v>9.2</v>
+          </cell>
+          <cell r="R30">
+            <v>0.184</v>
+          </cell>
+          <cell r="S30">
+            <v>9185.616</v>
+          </cell>
+          <cell r="T30">
+            <v>88.4341600000007</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>JG_0000025</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>JH_00033</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>002929</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>润建股份</v>
+          </cell>
+          <cell r="E31">
+            <v>44560</v>
+          </cell>
+          <cell r="F31">
+            <v>38.66</v>
+          </cell>
+          <cell r="G31">
+            <v>200</v>
+          </cell>
+          <cell r="H31">
+            <v>5</v>
+          </cell>
+          <cell r="I31">
+            <v>0</v>
+          </cell>
+          <cell r="J31">
+            <v>7737</v>
+          </cell>
+          <cell r="K31">
+            <v>35.76</v>
+          </cell>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+          <cell r="M31">
+            <v>44561</v>
+          </cell>
+          <cell r="N31">
+            <v>36.35</v>
+          </cell>
+          <cell r="O31">
+            <v>200</v>
+          </cell>
+          <cell r="P31">
+            <v>5</v>
+          </cell>
+          <cell r="Q31">
+            <v>7.27</v>
+          </cell>
+          <cell r="R31">
+            <v>0</v>
+          </cell>
+          <cell r="S31">
+            <v>7257.73</v>
+          </cell>
+          <cell r="T31">
+            <v>-479.27</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>JG_0000026</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>JH_00029</v>
+          </cell>
+          <cell r="C32">
+            <v>601677</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E32">
+            <v>44561</v>
+          </cell>
+          <cell r="F32">
+            <v>44.36</v>
+          </cell>
+          <cell r="G32">
+            <v>500</v>
+          </cell>
+          <cell r="H32">
+            <v>5</v>
+          </cell>
+          <cell r="I32">
+            <v>0.4436</v>
+          </cell>
+          <cell r="J32">
+            <v>22185.4436</v>
+          </cell>
+          <cell r="K32">
+            <v>41.81</v>
+          </cell>
+          <cell r="L32">
+            <v>0</v>
+          </cell>
+          <cell r="M32">
+            <v>44566</v>
+          </cell>
+          <cell r="N32">
+            <v>41.9</v>
+          </cell>
+          <cell r="O32">
+            <v>500</v>
+          </cell>
+          <cell r="P32">
+            <v>5</v>
+          </cell>
+          <cell r="Q32">
+            <v>20.95</v>
+          </cell>
+          <cell r="R32">
+            <v>0.419</v>
+          </cell>
+          <cell r="S32">
+            <v>20923.631</v>
+          </cell>
+          <cell r="T32">
+            <v>-1261.8126</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>JG_0000027</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>JH_00031</v>
+          </cell>
+          <cell r="C33">
+            <v>600587</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>新华医疗</v>
+          </cell>
+          <cell r="E33">
+            <v>44561</v>
+          </cell>
+          <cell r="F33">
+            <v>31.6</v>
+          </cell>
+          <cell r="G33">
+            <v>300</v>
+          </cell>
+          <cell r="H33">
+            <v>5</v>
+          </cell>
+          <cell r="I33">
+            <v>0.1896</v>
+          </cell>
+          <cell r="J33">
+            <v>9485.1896</v>
+          </cell>
+          <cell r="K33">
+            <v>29.05</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+          <cell r="M33">
+            <v>44568</v>
+          </cell>
+          <cell r="N33">
+            <v>29.07</v>
+          </cell>
+          <cell r="O33">
+            <v>300</v>
+          </cell>
+          <cell r="P33">
+            <v>5</v>
+          </cell>
+          <cell r="Q33">
+            <v>8.721</v>
+          </cell>
+          <cell r="R33">
+            <v>0.17442</v>
+          </cell>
+          <cell r="S33">
+            <v>8707.10458</v>
+          </cell>
+          <cell r="T33">
+            <v>-778.085019999999</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>JG_0000028</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>JH_00026</v>
+          </cell>
+          <cell r="C34">
+            <v>603995</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>甬金股份</v>
+          </cell>
+          <cell r="E34">
+            <v>44561</v>
+          </cell>
+          <cell r="F34">
+            <v>58.83</v>
+          </cell>
+          <cell r="G34">
+            <v>100</v>
+          </cell>
+          <cell r="H34">
+            <v>5</v>
+          </cell>
+          <cell r="I34">
+            <v>0.11766</v>
+          </cell>
+          <cell r="J34">
+            <v>5888.11766</v>
+          </cell>
+          <cell r="K34">
+            <v>56.49</v>
+          </cell>
+          <cell r="L34">
+            <v>244.11766</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>JG_0000029</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>JH_00039</v>
+          </cell>
+          <cell r="C35">
+            <v>603217</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>元利科技</v>
+          </cell>
+          <cell r="E35">
+            <v>44561</v>
+          </cell>
+          <cell r="F35">
+            <v>50.81</v>
+          </cell>
+          <cell r="G35">
+            <v>100</v>
+          </cell>
+          <cell r="H35">
+            <v>5</v>
+          </cell>
+          <cell r="I35">
+            <v>0.10162</v>
+          </cell>
+          <cell r="J35">
+            <v>5086.10162</v>
+          </cell>
+          <cell r="K35">
+            <v>47.35</v>
+          </cell>
+          <cell r="L35">
+            <v>356.10162</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>JG_0000030</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>JH_00039</v>
+          </cell>
+          <cell r="C36">
+            <v>603217</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>元利科技</v>
+          </cell>
+          <cell r="E36">
+            <v>44559</v>
+          </cell>
+          <cell r="F36">
+            <v>48.88</v>
+          </cell>
+          <cell r="G36">
+            <v>200</v>
+          </cell>
+          <cell r="H36">
+            <v>5</v>
+          </cell>
+          <cell r="I36">
+            <v>0.19552</v>
+          </cell>
+          <cell r="J36">
+            <v>9781.19552</v>
+          </cell>
+          <cell r="K36">
+            <v>45.1</v>
+          </cell>
+          <cell r="L36">
+            <v>766.19552</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>JG_0000031</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>JH_00045</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>002932</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E37">
+            <v>44568</v>
+          </cell>
+          <cell r="F37">
+            <v>77.78</v>
+          </cell>
+          <cell r="G37">
+            <v>100</v>
+          </cell>
+          <cell r="H37">
+            <v>5</v>
+          </cell>
+          <cell r="I37">
+            <v>0</v>
+          </cell>
+          <cell r="J37">
+            <v>7783</v>
+          </cell>
+          <cell r="K37">
+            <v>73.28</v>
+          </cell>
+          <cell r="L37">
+            <v>460</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>JG_0000032</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>JH_00045</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>002933</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E38">
+            <v>44572</v>
+          </cell>
+          <cell r="F38">
+            <v>92.88</v>
+          </cell>
+          <cell r="G38">
+            <v>200</v>
+          </cell>
+          <cell r="H38">
+            <v>5</v>
+          </cell>
+          <cell r="I38">
+            <v>0</v>
+          </cell>
+          <cell r="J38">
+            <v>18581</v>
+          </cell>
+          <cell r="K38">
+            <v>73.28</v>
+          </cell>
+          <cell r="L38">
+            <v>3930</v>
           </cell>
         </row>
       </sheetData>
@@ -3464,11 +3357,11 @@
   <dimension ref="A1:AK468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG7" sqref="AG7"/>
+      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3563,7 +3456,7 @@
       <c r="AJ1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3602,7 +3495,7 @@
       <c r="AF2" s="24"/>
       <c r="AG2" s="36"/>
       <c r="AH2" s="33"/>
-      <c r="AI2" s="37"/>
+      <c r="AI2" s="34"/>
       <c r="AJ2" s="35"/>
       <c r="AK2" s="17"/>
     </row>
@@ -3677,7 +3570,7 @@
       <c r="AF3" s="19"/>
       <c r="AG3" s="36"/>
       <c r="AH3" s="33"/>
-      <c r="AI3" s="37"/>
+      <c r="AI3" s="34"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="17"/>
     </row>
@@ -3738,7 +3631,7 @@
       </c>
       <c r="AG4" s="36"/>
       <c r="AH4" s="33"/>
-      <c r="AI4" s="37"/>
+      <c r="AI4" s="34"/>
       <c r="AJ4" s="35"/>
       <c r="AK4" s="17"/>
     </row>
@@ -3795,7 +3688,7 @@
       <c r="AF5" s="32"/>
       <c r="AG5" s="36"/>
       <c r="AH5" s="33"/>
-      <c r="AI5" s="37"/>
+      <c r="AI5" s="34"/>
       <c r="AJ5" s="35"/>
       <c r="AK5" s="17"/>
     </row>
@@ -3858,20 +3751,20 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="38">
+      <c r="AG6" s="37">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>0.0443094514918707</v>
+        <v>0.447498761763249</v>
       </c>
       <c r="AH6" s="20" t="str">
         <f>IF(AG6-((VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10005,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI6" s="39">
+      <c r="AI6" s="38">
         <v>52</v>
       </c>
       <c r="AJ6" s="10">
         <f>($AI6-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
-        <v>-794</v>
+        <v>2324</v>
       </c>
       <c r="AK6" s="17" t="s">
         <v>46</v>
@@ -3934,21 +3827,21 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="38">
+      <c r="AG7" s="37">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
-        <v>0.0246560657495087</v>
+        <v>0.42025755324418</v>
       </c>
       <c r="AH7" s="20" t="str">
         <f>IF(AG7-((VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10006,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI7" s="40">
+      <c r="AI7" s="39">
         <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AI6)</f>
-        <v>52</v>
+        <v>51.14</v>
       </c>
       <c r="AJ7" s="10">
         <f>($AI7-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
-        <v>-794</v>
+        <v>2152</v>
       </c>
       <c r="AK7" s="17" t="s">
         <v>46</v>
@@ -4011,21 +3904,21 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="38">
+      <c r="AG8" s="37">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
-        <v>0.0294800786135429</v>
+        <v>0.426944031698861</v>
       </c>
       <c r="AH8" s="20" t="str">
         <f>IF(AG8-((VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10007,18,FALSE))/VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AI8" s="40">
+      <c r="AI8" s="39">
         <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AI7)</f>
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="AJ8" s="10">
         <f>($AI8-VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$28,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
-        <v>-794</v>
+        <v>2204</v>
       </c>
       <c r="AK8" s="17" t="s">
         <v>46</v>
@@ -4066,9 +3959,9 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="42"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
       <c r="AK9" s="5"/>
     </row>
     <row r="10" spans="1:37">
@@ -4106,9 +3999,9 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="42"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="41"/>
       <c r="AK10" s="5"/>
     </row>
     <row r="11" spans="1:37">
@@ -4146,9 +4039,9 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="42"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="41"/>
       <c r="AK11" s="5"/>
     </row>
     <row r="12" spans="1:37">
@@ -4186,9 +4079,9 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="42"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="41"/>
       <c r="AK12" s="5"/>
     </row>
     <row r="13" spans="1:37">
@@ -4226,9 +4119,9 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="42"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="41"/>
       <c r="AK13" s="5"/>
     </row>
     <row r="14" spans="1:37">
@@ -4266,9 +4159,9 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="42"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="41"/>
       <c r="AK14" s="5"/>
     </row>
     <row r="15" spans="1:37">
@@ -4306,9 +4199,9 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="42"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="41"/>
       <c r="AK15" s="5"/>
     </row>
     <row r="16" spans="1:37">
@@ -4346,9 +4239,9 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="42"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="41"/>
       <c r="AK16" s="5"/>
     </row>
     <row r="17" spans="1:37">
@@ -4386,9 +4279,9 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="42"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="41"/>
       <c r="AK17" s="5"/>
     </row>
     <row r="18" spans="1:37">
@@ -4426,9 +4319,9 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="42"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="41"/>
       <c r="AK18" s="5"/>
     </row>
     <row r="19" spans="1:37">
@@ -4466,9 +4359,9 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="42"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="41"/>
       <c r="AK19" s="5"/>
     </row>
     <row r="20" spans="1:37">
@@ -4506,9 +4399,9 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="42"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="41"/>
       <c r="AK20" s="5"/>
     </row>
     <row r="21" spans="1:37">
@@ -4546,9 +4439,9 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="42"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="41"/>
       <c r="AK21" s="5"/>
     </row>
     <row r="22" spans="1:37">
@@ -4586,9 +4479,9 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="42"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="41"/>
       <c r="AK22" s="5"/>
     </row>
     <row r="23" spans="1:37">
@@ -4626,9 +4519,9 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="42"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="41"/>
       <c r="AK23" s="5"/>
     </row>
     <row r="24" spans="1:37">
@@ -4666,9 +4559,9 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="42"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="41"/>
       <c r="AK24" s="5"/>
     </row>
     <row r="25" spans="1:37">
@@ -4706,9 +4599,9 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="42"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="41"/>
       <c r="AK25" s="5"/>
     </row>
     <row r="26" spans="1:37">
@@ -4746,9 +4639,9 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="42"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="41"/>
       <c r="AK26" s="5"/>
     </row>
     <row r="27" spans="1:37">
@@ -4786,9 +4679,9 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="42"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="41"/>
       <c r="AK27" s="5"/>
     </row>
     <row r="28" spans="1:37">
@@ -4826,9 +4719,9 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="42"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="41"/>
       <c r="AK28" s="5"/>
     </row>
     <row r="29" spans="1:37">
@@ -4866,9 +4759,9 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="42"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="41"/>
       <c r="AK29" s="5"/>
     </row>
     <row r="30" spans="1:37">
@@ -4906,9 +4799,9 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="42"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="41"/>
       <c r="AK30" s="5"/>
     </row>
     <row r="31" spans="1:37">
@@ -4946,9 +4839,9 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="42"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="41"/>
       <c r="AK31" s="5"/>
     </row>
     <row r="32" spans="1:37">
@@ -4986,9 +4879,9 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="42"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="41"/>
       <c r="AK32" s="5"/>
     </row>
     <row r="33" spans="1:37">
@@ -5026,9 +4919,9 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="42"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="41"/>
       <c r="AK33" s="5"/>
     </row>
     <row r="34" spans="1:37">
@@ -5066,9 +4959,9 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="42"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="41"/>
       <c r="AK34" s="5"/>
     </row>
     <row r="35" spans="1:37">
@@ -5106,9 +4999,9 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="42"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="41"/>
       <c r="AK35" s="5"/>
     </row>
     <row r="36" spans="1:37">
@@ -5146,9 +5039,9 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="42"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="41"/>
       <c r="AK36" s="5"/>
     </row>
     <row r="37" spans="1:37">
@@ -5186,9 +5079,9 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="42"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="41"/>
       <c r="AK37" s="5"/>
     </row>
     <row r="38" spans="1:37">
@@ -5226,9 +5119,9 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="42"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="41"/>
       <c r="AK38" s="5"/>
     </row>
     <row r="39" spans="1:37">
@@ -5266,9 +5159,9 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="42"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="41"/>
       <c r="AK39" s="5"/>
     </row>
     <row r="40" spans="1:37">
@@ -5306,9 +5199,9 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="42"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="40"/>
+      <c r="AI40" s="41"/>
       <c r="AK40" s="5"/>
     </row>
     <row r="41" spans="1:37">
@@ -5346,9 +5239,9 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="41"/>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="42"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="40"/>
+      <c r="AI41" s="41"/>
       <c r="AK41" s="5"/>
     </row>
     <row r="42" spans="1:37">
@@ -5386,9 +5279,9 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="42"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="41"/>
       <c r="AK42" s="5"/>
     </row>
     <row r="43" spans="1:37">
@@ -5426,9 +5319,9 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
-      <c r="AG43" s="41"/>
-      <c r="AH43" s="41"/>
-      <c r="AI43" s="42"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="40"/>
+      <c r="AI43" s="41"/>
       <c r="AK43" s="5"/>
     </row>
     <row r="44" spans="1:37">
@@ -5466,9 +5359,9 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
-      <c r="AG44" s="41"/>
-      <c r="AH44" s="41"/>
-      <c r="AI44" s="42"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="40"/>
+      <c r="AI44" s="41"/>
       <c r="AK44" s="5"/>
     </row>
     <row r="45" spans="1:37">
@@ -5506,9 +5399,9 @@
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
-      <c r="AG45" s="41"/>
-      <c r="AH45" s="41"/>
-      <c r="AI45" s="42"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="41"/>
       <c r="AK45" s="5"/>
     </row>
     <row r="46" spans="1:37">
@@ -5546,9 +5439,9 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
-      <c r="AG46" s="41"/>
-      <c r="AH46" s="41"/>
-      <c r="AI46" s="42"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="41"/>
       <c r="AK46" s="5"/>
     </row>
     <row r="47" spans="1:37">
@@ -5586,9 +5479,9 @@
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="42"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="41"/>
       <c r="AK47" s="5"/>
     </row>
     <row r="48" spans="1:37">
@@ -5626,9 +5519,9 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="42"/>
+      <c r="AG48" s="40"/>
+      <c r="AH48" s="40"/>
+      <c r="AI48" s="41"/>
       <c r="AK48" s="5"/>
     </row>
     <row r="49" spans="1:37">
@@ -5666,9 +5559,9 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="42"/>
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="40"/>
+      <c r="AI49" s="41"/>
       <c r="AK49" s="5"/>
     </row>
     <row r="50" spans="1:37">
@@ -5706,9 +5599,9 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
-      <c r="AG50" s="41"/>
-      <c r="AH50" s="41"/>
-      <c r="AI50" s="42"/>
+      <c r="AG50" s="40"/>
+      <c r="AH50" s="40"/>
+      <c r="AI50" s="41"/>
       <c r="AK50" s="5"/>
     </row>
     <row r="51" spans="1:37">
@@ -5746,9 +5639,9 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="42"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="40"/>
+      <c r="AI51" s="41"/>
       <c r="AK51" s="5"/>
     </row>
     <row r="52" spans="1:37">
@@ -5786,9 +5679,9 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
-      <c r="AG52" s="41"/>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="42"/>
+      <c r="AG52" s="40"/>
+      <c r="AH52" s="40"/>
+      <c r="AI52" s="41"/>
       <c r="AK52" s="5"/>
     </row>
     <row r="53" spans="1:37">
@@ -5826,9 +5719,9 @@
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
-      <c r="AG53" s="41"/>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="42"/>
+      <c r="AG53" s="40"/>
+      <c r="AH53" s="40"/>
+      <c r="AI53" s="41"/>
       <c r="AK53" s="5"/>
     </row>
     <row r="54" spans="1:37">
@@ -5866,9 +5759,9 @@
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
-      <c r="AG54" s="41"/>
-      <c r="AH54" s="41"/>
-      <c r="AI54" s="42"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="41"/>
       <c r="AK54" s="5"/>
     </row>
     <row r="55" spans="1:37">
@@ -5906,9 +5799,9 @@
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
-      <c r="AG55" s="41"/>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="42"/>
+      <c r="AG55" s="40"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="41"/>
       <c r="AK55" s="5"/>
     </row>
     <row r="56" spans="1:37">
@@ -5946,9 +5839,9 @@
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
-      <c r="AG56" s="41"/>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="42"/>
+      <c r="AG56" s="40"/>
+      <c r="AH56" s="40"/>
+      <c r="AI56" s="41"/>
       <c r="AK56" s="5"/>
     </row>
     <row r="57" spans="1:37">
@@ -5986,9 +5879,9 @@
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
-      <c r="AG57" s="41"/>
-      <c r="AH57" s="41"/>
-      <c r="AI57" s="42"/>
+      <c r="AG57" s="40"/>
+      <c r="AH57" s="40"/>
+      <c r="AI57" s="41"/>
       <c r="AK57" s="5"/>
     </row>
     <row r="58" spans="1:37">
@@ -6026,9 +5919,9 @@
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
-      <c r="AG58" s="41"/>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="42"/>
+      <c r="AG58" s="40"/>
+      <c r="AH58" s="40"/>
+      <c r="AI58" s="41"/>
       <c r="AK58" s="5"/>
     </row>
     <row r="59" spans="1:37">
@@ -6066,9 +5959,9 @@
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="42"/>
+      <c r="AG59" s="40"/>
+      <c r="AH59" s="40"/>
+      <c r="AI59" s="41"/>
       <c r="AK59" s="5"/>
     </row>
     <row r="60" spans="1:37">
@@ -6106,9 +5999,9 @@
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="42"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="40"/>
+      <c r="AI60" s="41"/>
       <c r="AK60" s="5"/>
     </row>
     <row r="61" spans="1:37">
@@ -6146,9 +6039,9 @@
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
-      <c r="AG61" s="41"/>
-      <c r="AH61" s="41"/>
-      <c r="AI61" s="42"/>
+      <c r="AG61" s="40"/>
+      <c r="AH61" s="40"/>
+      <c r="AI61" s="41"/>
       <c r="AK61" s="5"/>
     </row>
     <row r="62" spans="1:37">
@@ -6186,9 +6079,9 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
-      <c r="AG62" s="41"/>
-      <c r="AH62" s="41"/>
-      <c r="AI62" s="42"/>
+      <c r="AG62" s="40"/>
+      <c r="AH62" s="40"/>
+      <c r="AI62" s="41"/>
       <c r="AK62" s="5"/>
     </row>
     <row r="63" spans="1:37">
@@ -6226,9 +6119,9 @@
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
-      <c r="AG63" s="41"/>
-      <c r="AH63" s="41"/>
-      <c r="AI63" s="42"/>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="40"/>
+      <c r="AI63" s="41"/>
       <c r="AK63" s="5"/>
     </row>
     <row r="64" spans="1:37">
@@ -6266,9 +6159,9 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
-      <c r="AG64" s="41"/>
-      <c r="AH64" s="41"/>
-      <c r="AI64" s="42"/>
+      <c r="AG64" s="40"/>
+      <c r="AH64" s="40"/>
+      <c r="AI64" s="41"/>
       <c r="AK64" s="5"/>
     </row>
     <row r="65" spans="1:37">
@@ -6306,9 +6199,9 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
-      <c r="AG65" s="41"/>
-      <c r="AH65" s="41"/>
-      <c r="AI65" s="42"/>
+      <c r="AG65" s="40"/>
+      <c r="AH65" s="40"/>
+      <c r="AI65" s="41"/>
       <c r="AK65" s="5"/>
     </row>
     <row r="66" spans="1:37">
@@ -6346,9 +6239,9 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
-      <c r="AG66" s="41"/>
-      <c r="AH66" s="41"/>
-      <c r="AI66" s="42"/>
+      <c r="AG66" s="40"/>
+      <c r="AH66" s="40"/>
+      <c r="AI66" s="41"/>
       <c r="AK66" s="5"/>
     </row>
     <row r="67" spans="1:37">
@@ -6386,9 +6279,9 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
-      <c r="AG67" s="41"/>
-      <c r="AH67" s="41"/>
-      <c r="AI67" s="42"/>
+      <c r="AG67" s="40"/>
+      <c r="AH67" s="40"/>
+      <c r="AI67" s="41"/>
       <c r="AK67" s="5"/>
     </row>
     <row r="68" spans="1:37">
@@ -6426,9 +6319,9 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
-      <c r="AG68" s="41"/>
-      <c r="AH68" s="41"/>
-      <c r="AI68" s="42"/>
+      <c r="AG68" s="40"/>
+      <c r="AH68" s="40"/>
+      <c r="AI68" s="41"/>
       <c r="AK68" s="5"/>
     </row>
     <row r="69" spans="1:37">
@@ -6466,9 +6359,9 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
-      <c r="AG69" s="41"/>
-      <c r="AH69" s="41"/>
-      <c r="AI69" s="42"/>
+      <c r="AG69" s="40"/>
+      <c r="AH69" s="40"/>
+      <c r="AI69" s="41"/>
       <c r="AK69" s="5"/>
     </row>
     <row r="70" spans="1:37">
@@ -6506,9 +6399,9 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
-      <c r="AG70" s="41"/>
-      <c r="AH70" s="41"/>
-      <c r="AI70" s="42"/>
+      <c r="AG70" s="40"/>
+      <c r="AH70" s="40"/>
+      <c r="AI70" s="41"/>
       <c r="AK70" s="5"/>
     </row>
     <row r="71" spans="1:37">
@@ -6546,9 +6439,9 @@
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
-      <c r="AG71" s="41"/>
-      <c r="AH71" s="41"/>
-      <c r="AI71" s="42"/>
+      <c r="AG71" s="40"/>
+      <c r="AH71" s="40"/>
+      <c r="AI71" s="41"/>
       <c r="AK71" s="5"/>
     </row>
     <row r="72" spans="1:37">
@@ -6586,9 +6479,9 @@
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
-      <c r="AG72" s="41"/>
-      <c r="AH72" s="41"/>
-      <c r="AI72" s="42"/>
+      <c r="AG72" s="40"/>
+      <c r="AH72" s="40"/>
+      <c r="AI72" s="41"/>
       <c r="AK72" s="5"/>
     </row>
     <row r="73" spans="1:37">
@@ -6626,9 +6519,9 @@
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
-      <c r="AG73" s="41"/>
-      <c r="AH73" s="41"/>
-      <c r="AI73" s="42"/>
+      <c r="AG73" s="40"/>
+      <c r="AH73" s="40"/>
+      <c r="AI73" s="41"/>
       <c r="AK73" s="5"/>
     </row>
     <row r="74" spans="1:37">
@@ -6666,9 +6559,9 @@
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
-      <c r="AG74" s="41"/>
-      <c r="AH74" s="41"/>
-      <c r="AI74" s="42"/>
+      <c r="AG74" s="40"/>
+      <c r="AH74" s="40"/>
+      <c r="AI74" s="41"/>
       <c r="AK74" s="5"/>
     </row>
     <row r="75" spans="1:37">
@@ -6706,9 +6599,9 @@
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
-      <c r="AG75" s="41"/>
-      <c r="AH75" s="41"/>
-      <c r="AI75" s="42"/>
+      <c r="AG75" s="40"/>
+      <c r="AH75" s="40"/>
+      <c r="AI75" s="41"/>
       <c r="AK75" s="5"/>
     </row>
     <row r="76" spans="1:37">
@@ -6746,9 +6639,9 @@
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
-      <c r="AG76" s="41"/>
-      <c r="AH76" s="41"/>
-      <c r="AI76" s="42"/>
+      <c r="AG76" s="40"/>
+      <c r="AH76" s="40"/>
+      <c r="AI76" s="41"/>
       <c r="AK76" s="5"/>
     </row>
     <row r="77" spans="1:37">
@@ -6786,9 +6679,9 @@
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
-      <c r="AG77" s="41"/>
-      <c r="AH77" s="41"/>
-      <c r="AI77" s="42"/>
+      <c r="AG77" s="40"/>
+      <c r="AH77" s="40"/>
+      <c r="AI77" s="41"/>
       <c r="AK77" s="5"/>
     </row>
     <row r="78" spans="1:37">
@@ -6826,9 +6719,9 @@
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
-      <c r="AG78" s="41"/>
-      <c r="AH78" s="41"/>
-      <c r="AI78" s="42"/>
+      <c r="AG78" s="40"/>
+      <c r="AH78" s="40"/>
+      <c r="AI78" s="41"/>
       <c r="AK78" s="5"/>
     </row>
     <row r="79" spans="1:37">
@@ -6866,9 +6759,9 @@
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
-      <c r="AG79" s="41"/>
-      <c r="AH79" s="41"/>
-      <c r="AI79" s="42"/>
+      <c r="AG79" s="40"/>
+      <c r="AH79" s="40"/>
+      <c r="AI79" s="41"/>
       <c r="AK79" s="5"/>
     </row>
     <row r="80" spans="1:37">
@@ -6906,9 +6799,9 @@
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
-      <c r="AG80" s="41"/>
-      <c r="AH80" s="41"/>
-      <c r="AI80" s="42"/>
+      <c r="AG80" s="40"/>
+      <c r="AH80" s="40"/>
+      <c r="AI80" s="41"/>
       <c r="AK80" s="5"/>
     </row>
     <row r="81" spans="1:37">
@@ -6946,9 +6839,9 @@
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
-      <c r="AG81" s="41"/>
-      <c r="AH81" s="41"/>
-      <c r="AI81" s="42"/>
+      <c r="AG81" s="40"/>
+      <c r="AH81" s="40"/>
+      <c r="AI81" s="41"/>
       <c r="AK81" s="5"/>
     </row>
     <row r="82" spans="1:37">
@@ -6986,9 +6879,9 @@
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
-      <c r="AG82" s="41"/>
-      <c r="AH82" s="41"/>
-      <c r="AI82" s="42"/>
+      <c r="AG82" s="40"/>
+      <c r="AH82" s="40"/>
+      <c r="AI82" s="41"/>
       <c r="AK82" s="5"/>
     </row>
     <row r="83" spans="1:37">
@@ -7026,9 +6919,9 @@
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
-      <c r="AG83" s="41"/>
-      <c r="AH83" s="41"/>
-      <c r="AI83" s="42"/>
+      <c r="AG83" s="40"/>
+      <c r="AH83" s="40"/>
+      <c r="AI83" s="41"/>
       <c r="AK83" s="5"/>
     </row>
     <row r="84" spans="1:37">
@@ -7066,9 +6959,9 @@
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
-      <c r="AG84" s="41"/>
-      <c r="AH84" s="41"/>
-      <c r="AI84" s="42"/>
+      <c r="AG84" s="40"/>
+      <c r="AH84" s="40"/>
+      <c r="AI84" s="41"/>
       <c r="AK84" s="5"/>
     </row>
     <row r="85" spans="1:37">
@@ -7106,9 +6999,9 @@
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
-      <c r="AG85" s="41"/>
-      <c r="AH85" s="41"/>
-      <c r="AI85" s="42"/>
+      <c r="AG85" s="40"/>
+      <c r="AH85" s="40"/>
+      <c r="AI85" s="41"/>
       <c r="AK85" s="5"/>
     </row>
     <row r="86" spans="1:37">
@@ -7146,9 +7039,9 @@
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
-      <c r="AG86" s="41"/>
-      <c r="AH86" s="41"/>
-      <c r="AI86" s="42"/>
+      <c r="AG86" s="40"/>
+      <c r="AH86" s="40"/>
+      <c r="AI86" s="41"/>
       <c r="AK86" s="5"/>
     </row>
     <row r="87" spans="1:37">
@@ -7186,9 +7079,9 @@
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
-      <c r="AG87" s="41"/>
-      <c r="AH87" s="41"/>
-      <c r="AI87" s="42"/>
+      <c r="AG87" s="40"/>
+      <c r="AH87" s="40"/>
+      <c r="AI87" s="41"/>
       <c r="AK87" s="5"/>
     </row>
     <row r="88" spans="1:37">
@@ -7226,9 +7119,9 @@
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
-      <c r="AG88" s="41"/>
-      <c r="AH88" s="41"/>
-      <c r="AI88" s="42"/>
+      <c r="AG88" s="40"/>
+      <c r="AH88" s="40"/>
+      <c r="AI88" s="41"/>
       <c r="AK88" s="5"/>
     </row>
     <row r="89" spans="1:37">
@@ -7266,9 +7159,9 @@
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
-      <c r="AG89" s="41"/>
-      <c r="AH89" s="41"/>
-      <c r="AI89" s="42"/>
+      <c r="AG89" s="40"/>
+      <c r="AH89" s="40"/>
+      <c r="AI89" s="41"/>
       <c r="AK89" s="5"/>
     </row>
     <row r="90" spans="1:37">
@@ -7306,9 +7199,9 @@
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
-      <c r="AG90" s="41"/>
-      <c r="AH90" s="41"/>
-      <c r="AI90" s="42"/>
+      <c r="AG90" s="40"/>
+      <c r="AH90" s="40"/>
+      <c r="AI90" s="41"/>
       <c r="AK90" s="5"/>
     </row>
     <row r="91" spans="1:37">
@@ -7346,9 +7239,9 @@
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
-      <c r="AG91" s="41"/>
-      <c r="AH91" s="41"/>
-      <c r="AI91" s="42"/>
+      <c r="AG91" s="40"/>
+      <c r="AH91" s="40"/>
+      <c r="AI91" s="41"/>
       <c r="AK91" s="5"/>
     </row>
     <row r="92" spans="1:37">
@@ -7386,9 +7279,9 @@
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
-      <c r="AG92" s="41"/>
-      <c r="AH92" s="41"/>
-      <c r="AI92" s="42"/>
+      <c r="AG92" s="40"/>
+      <c r="AH92" s="40"/>
+      <c r="AI92" s="41"/>
       <c r="AK92" s="5"/>
     </row>
     <row r="93" spans="1:37">
@@ -7426,9 +7319,9 @@
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
-      <c r="AG93" s="41"/>
-      <c r="AH93" s="41"/>
-      <c r="AI93" s="42"/>
+      <c r="AG93" s="40"/>
+      <c r="AH93" s="40"/>
+      <c r="AI93" s="41"/>
       <c r="AK93" s="5"/>
     </row>
     <row r="94" spans="1:37">
@@ -7466,9 +7359,9 @@
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
-      <c r="AG94" s="41"/>
-      <c r="AH94" s="41"/>
-      <c r="AI94" s="42"/>
+      <c r="AG94" s="40"/>
+      <c r="AH94" s="40"/>
+      <c r="AI94" s="41"/>
       <c r="AK94" s="5"/>
     </row>
     <row r="95" spans="1:37">
@@ -7506,9 +7399,9 @@
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
-      <c r="AG95" s="41"/>
-      <c r="AH95" s="41"/>
-      <c r="AI95" s="42"/>
+      <c r="AG95" s="40"/>
+      <c r="AH95" s="40"/>
+      <c r="AI95" s="41"/>
       <c r="AK95" s="5"/>
     </row>
     <row r="96" spans="1:37">
@@ -7546,9 +7439,9 @@
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
-      <c r="AG96" s="41"/>
-      <c r="AH96" s="41"/>
-      <c r="AI96" s="42"/>
+      <c r="AG96" s="40"/>
+      <c r="AH96" s="40"/>
+      <c r="AI96" s="41"/>
       <c r="AK96" s="5"/>
     </row>
     <row r="97" spans="1:37">
@@ -7586,9 +7479,9 @@
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
-      <c r="AG97" s="41"/>
-      <c r="AH97" s="41"/>
-      <c r="AI97" s="42"/>
+      <c r="AG97" s="40"/>
+      <c r="AH97" s="40"/>
+      <c r="AI97" s="41"/>
       <c r="AK97" s="5"/>
     </row>
     <row r="98" spans="1:36">
@@ -7612,7 +7505,7 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
       <c r="Y98" s="3"/>
-      <c r="AJ98" s="44"/>
+      <c r="AJ98" s="43"/>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/甬金股份-JH_00026.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/甬金股份-JH_00026.xlsx
@@ -3391,11 +3391,11 @@
   <dimension ref="A1:AN463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI6" sqref="AI6"/>
+      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/甬金股份-JH_00026.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/甬金股份-JH_00026.xlsx
@@ -254,8 +254,8 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -312,6 +312,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,6 +332,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -333,23 +356,61 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,53 +425,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -419,7 +433,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,25 +447,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,13 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +566,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,91 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,19 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,15 +744,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -763,7 +754,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,21 +769,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -824,6 +800,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -843,85 +843,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,65 +930,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,9 +1133,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3006,6 +3003,30 @@
           </cell>
           <cell r="L35">
             <v>356.10162</v>
+          </cell>
+          <cell r="M35">
+            <v>44566</v>
+          </cell>
+          <cell r="N35">
+            <v>47.33</v>
+          </cell>
+          <cell r="O35">
+            <v>100</v>
+          </cell>
+          <cell r="P35">
+            <v>5</v>
+          </cell>
+          <cell r="Q35">
+            <v>4.733</v>
+          </cell>
+          <cell r="R35">
+            <v>0.09466</v>
+          </cell>
+          <cell r="S35">
+            <v>4723.17234</v>
+          </cell>
+          <cell r="T35">
+            <v>-362.92928</v>
           </cell>
         </row>
         <row r="36">
@@ -3391,11 +3412,11 @@
   <dimension ref="A1:AN463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3881,7 +3902,10 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
+      <c r="U7" s="20" t="str">
+        <f t="shared" ref="U7:U15" si="0">IF(B7&lt;G7,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
@@ -3961,7 +3985,10 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
@@ -4025,11 +4052,11 @@
         <v>22.71</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" ref="J9:J15" si="0">IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
+        <f t="shared" ref="J9:J15" si="1">IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
         <v>-1</v>
       </c>
       <c r="K9" s="22">
-        <f t="shared" ref="K9:K15" si="1">(B9-B8)/B8</f>
+        <f t="shared" ref="K9:K15" si="2">(B9-B8)/B8</f>
         <v>0.00416522040958004</v>
       </c>
       <c r="L9" s="20"/>
@@ -4041,7 +4068,10 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+      <c r="U9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
@@ -4108,11 +4138,11 @@
         <v>22.81</v>
       </c>
       <c r="J10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.0547874179052887</v>
       </c>
       <c r="L10" s="20"/>
@@ -4124,7 +4154,10 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="U10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
@@ -4136,7 +4169,7 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
-      <c r="AG10" s="23">
+      <c r="AG10" s="22">
         <f>($B10-VLOOKUP([1]交易计划及执行表!$A$29,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$29,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.0904055744148651</v>
       </c>
@@ -4196,11 +4229,11 @@
         <v>24.06</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.0496477142388989</v>
       </c>
       <c r="L11" s="20"/>
@@ -4212,7 +4245,10 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="U11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
@@ -4285,11 +4321,11 @@
         <v>22.86</v>
       </c>
       <c r="J12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.0637931034482759</v>
       </c>
       <c r="L12" s="20"/>
@@ -4301,7 +4337,10 @@
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="U12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
@@ -4374,11 +4413,11 @@
         <v>24.32</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.00534846029173429</v>
       </c>
       <c r="L13" s="20"/>
@@ -4390,7 +4429,10 @@
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="U13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
@@ -4463,11 +4505,11 @@
         <v>24.19</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.0127097930584975</v>
       </c>
       <c r="L14" s="20"/>
@@ -4479,7 +4521,10 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+      <c r="U14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -4552,11 +4597,11 @@
         <v>23.88</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.0084172305661001</v>
       </c>
       <c r="L15" s="20"/>
@@ -4568,7 +4613,10 @@
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+      <c r="U15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
@@ -4651,7 +4699,7 @@
       <c r="AH16" s="42"/>
       <c r="AI16" s="42"/>
       <c r="AJ16" s="43"/>
-      <c r="AK16" s="48"/>
+      <c r="AK16" s="42"/>
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
@@ -4694,7 +4742,7 @@
       <c r="AH17" s="42"/>
       <c r="AI17" s="42"/>
       <c r="AJ17" s="43"/>
-      <c r="AK17" s="48"/>
+      <c r="AK17" s="42"/>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
@@ -4737,7 +4785,7 @@
       <c r="AH18" s="42"/>
       <c r="AI18" s="42"/>
       <c r="AJ18" s="43"/>
-      <c r="AK18" s="48"/>
+      <c r="AK18" s="42"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
@@ -4780,7 +4828,7 @@
       <c r="AH19" s="42"/>
       <c r="AI19" s="42"/>
       <c r="AJ19" s="43"/>
-      <c r="AK19" s="48"/>
+      <c r="AK19" s="42"/>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
@@ -4823,7 +4871,7 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="42"/>
       <c r="AJ20" s="43"/>
-      <c r="AK20" s="48"/>
+      <c r="AK20" s="42"/>
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
@@ -4866,7 +4914,7 @@
       <c r="AH21" s="42"/>
       <c r="AI21" s="42"/>
       <c r="AJ21" s="43"/>
-      <c r="AK21" s="48"/>
+      <c r="AK21" s="42"/>
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
@@ -4909,7 +4957,7 @@
       <c r="AH22" s="42"/>
       <c r="AI22" s="42"/>
       <c r="AJ22" s="43"/>
-      <c r="AK22" s="48"/>
+      <c r="AK22" s="42"/>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
     </row>
@@ -4952,7 +5000,7 @@
       <c r="AH23" s="42"/>
       <c r="AI23" s="42"/>
       <c r="AJ23" s="43"/>
-      <c r="AK23" s="48"/>
+      <c r="AK23" s="42"/>
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
@@ -4995,7 +5043,7 @@
       <c r="AH24" s="42"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="43"/>
-      <c r="AK24" s="48"/>
+      <c r="AK24" s="42"/>
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
@@ -5038,7 +5086,7 @@
       <c r="AH25" s="42"/>
       <c r="AI25" s="42"/>
       <c r="AJ25" s="43"/>
-      <c r="AK25" s="48"/>
+      <c r="AK25" s="42"/>
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
     </row>
@@ -5081,7 +5129,7 @@
       <c r="AH26" s="42"/>
       <c r="AI26" s="42"/>
       <c r="AJ26" s="43"/>
-      <c r="AK26" s="48"/>
+      <c r="AK26" s="42"/>
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
@@ -5124,7 +5172,7 @@
       <c r="AH27" s="42"/>
       <c r="AI27" s="42"/>
       <c r="AJ27" s="43"/>
-      <c r="AK27" s="48"/>
+      <c r="AK27" s="42"/>
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
     </row>
@@ -5167,7 +5215,7 @@
       <c r="AH28" s="42"/>
       <c r="AI28" s="42"/>
       <c r="AJ28" s="43"/>
-      <c r="AK28" s="48"/>
+      <c r="AK28" s="42"/>
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
     </row>
@@ -5210,7 +5258,7 @@
       <c r="AH29" s="42"/>
       <c r="AI29" s="42"/>
       <c r="AJ29" s="43"/>
-      <c r="AK29" s="48"/>
+      <c r="AK29" s="42"/>
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
     </row>
@@ -5253,7 +5301,7 @@
       <c r="AH30" s="42"/>
       <c r="AI30" s="42"/>
       <c r="AJ30" s="43"/>
-      <c r="AK30" s="48"/>
+      <c r="AK30" s="42"/>
       <c r="AM30" s="6"/>
       <c r="AN30" s="6"/>
     </row>
@@ -5296,7 +5344,7 @@
       <c r="AH31" s="42"/>
       <c r="AI31" s="42"/>
       <c r="AJ31" s="43"/>
-      <c r="AK31" s="48"/>
+      <c r="AK31" s="42"/>
       <c r="AM31" s="6"/>
       <c r="AN31" s="6"/>
     </row>
@@ -5339,7 +5387,7 @@
       <c r="AH32" s="42"/>
       <c r="AI32" s="42"/>
       <c r="AJ32" s="43"/>
-      <c r="AK32" s="48"/>
+      <c r="AK32" s="42"/>
       <c r="AM32" s="6"/>
       <c r="AN32" s="6"/>
     </row>
@@ -5382,7 +5430,7 @@
       <c r="AH33" s="42"/>
       <c r="AI33" s="42"/>
       <c r="AJ33" s="43"/>
-      <c r="AK33" s="48"/>
+      <c r="AK33" s="42"/>
       <c r="AM33" s="6"/>
       <c r="AN33" s="6"/>
     </row>
@@ -5425,7 +5473,7 @@
       <c r="AH34" s="42"/>
       <c r="AI34" s="42"/>
       <c r="AJ34" s="43"/>
-      <c r="AK34" s="48"/>
+      <c r="AK34" s="42"/>
       <c r="AM34" s="6"/>
       <c r="AN34" s="6"/>
     </row>
@@ -5468,7 +5516,7 @@
       <c r="AH35" s="42"/>
       <c r="AI35" s="42"/>
       <c r="AJ35" s="43"/>
-      <c r="AK35" s="48"/>
+      <c r="AK35" s="42"/>
       <c r="AM35" s="6"/>
       <c r="AN35" s="6"/>
     </row>
@@ -5511,7 +5559,7 @@
       <c r="AH36" s="42"/>
       <c r="AI36" s="42"/>
       <c r="AJ36" s="43"/>
-      <c r="AK36" s="48"/>
+      <c r="AK36" s="42"/>
       <c r="AM36" s="6"/>
       <c r="AN36" s="6"/>
     </row>
@@ -5554,7 +5602,7 @@
       <c r="AH37" s="42"/>
       <c r="AI37" s="42"/>
       <c r="AJ37" s="43"/>
-      <c r="AK37" s="48"/>
+      <c r="AK37" s="42"/>
       <c r="AM37" s="6"/>
       <c r="AN37" s="6"/>
     </row>
@@ -5597,7 +5645,7 @@
       <c r="AH38" s="42"/>
       <c r="AI38" s="42"/>
       <c r="AJ38" s="43"/>
-      <c r="AK38" s="48"/>
+      <c r="AK38" s="42"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
     </row>
@@ -5640,7 +5688,7 @@
       <c r="AH39" s="42"/>
       <c r="AI39" s="42"/>
       <c r="AJ39" s="43"/>
-      <c r="AK39" s="48"/>
+      <c r="AK39" s="42"/>
       <c r="AM39" s="6"/>
       <c r="AN39" s="6"/>
     </row>
@@ -5683,7 +5731,7 @@
       <c r="AH40" s="42"/>
       <c r="AI40" s="42"/>
       <c r="AJ40" s="43"/>
-      <c r="AK40" s="48"/>
+      <c r="AK40" s="42"/>
       <c r="AM40" s="6"/>
       <c r="AN40" s="6"/>
     </row>
@@ -5726,7 +5774,7 @@
       <c r="AH41" s="42"/>
       <c r="AI41" s="42"/>
       <c r="AJ41" s="43"/>
-      <c r="AK41" s="48"/>
+      <c r="AK41" s="42"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6"/>
     </row>
@@ -5769,7 +5817,7 @@
       <c r="AH42" s="42"/>
       <c r="AI42" s="42"/>
       <c r="AJ42" s="43"/>
-      <c r="AK42" s="48"/>
+      <c r="AK42" s="42"/>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6"/>
     </row>
@@ -5812,7 +5860,7 @@
       <c r="AH43" s="42"/>
       <c r="AI43" s="42"/>
       <c r="AJ43" s="43"/>
-      <c r="AK43" s="48"/>
+      <c r="AK43" s="42"/>
       <c r="AM43" s="6"/>
       <c r="AN43" s="6"/>
     </row>
@@ -5855,7 +5903,7 @@
       <c r="AH44" s="42"/>
       <c r="AI44" s="42"/>
       <c r="AJ44" s="43"/>
-      <c r="AK44" s="48"/>
+      <c r="AK44" s="42"/>
       <c r="AM44" s="6"/>
       <c r="AN44" s="6"/>
     </row>
@@ -5898,7 +5946,7 @@
       <c r="AH45" s="42"/>
       <c r="AI45" s="42"/>
       <c r="AJ45" s="43"/>
-      <c r="AK45" s="48"/>
+      <c r="AK45" s="42"/>
       <c r="AM45" s="6"/>
       <c r="AN45" s="6"/>
     </row>
@@ -5941,7 +5989,7 @@
       <c r="AH46" s="42"/>
       <c r="AI46" s="42"/>
       <c r="AJ46" s="43"/>
-      <c r="AK46" s="48"/>
+      <c r="AK46" s="42"/>
       <c r="AM46" s="6"/>
       <c r="AN46" s="6"/>
     </row>
@@ -5984,7 +6032,7 @@
       <c r="AH47" s="42"/>
       <c r="AI47" s="42"/>
       <c r="AJ47" s="43"/>
-      <c r="AK47" s="48"/>
+      <c r="AK47" s="42"/>
       <c r="AM47" s="6"/>
       <c r="AN47" s="6"/>
     </row>
@@ -6027,7 +6075,7 @@
       <c r="AH48" s="42"/>
       <c r="AI48" s="42"/>
       <c r="AJ48" s="43"/>
-      <c r="AK48" s="48"/>
+      <c r="AK48" s="42"/>
       <c r="AM48" s="6"/>
       <c r="AN48" s="6"/>
     </row>
@@ -6070,7 +6118,7 @@
       <c r="AH49" s="42"/>
       <c r="AI49" s="42"/>
       <c r="AJ49" s="43"/>
-      <c r="AK49" s="48"/>
+      <c r="AK49" s="42"/>
       <c r="AM49" s="6"/>
       <c r="AN49" s="6"/>
     </row>
@@ -6113,7 +6161,7 @@
       <c r="AH50" s="42"/>
       <c r="AI50" s="42"/>
       <c r="AJ50" s="43"/>
-      <c r="AK50" s="48"/>
+      <c r="AK50" s="42"/>
       <c r="AM50" s="6"/>
       <c r="AN50" s="6"/>
     </row>
@@ -6156,7 +6204,7 @@
       <c r="AH51" s="42"/>
       <c r="AI51" s="42"/>
       <c r="AJ51" s="43"/>
-      <c r="AK51" s="48"/>
+      <c r="AK51" s="42"/>
       <c r="AM51" s="6"/>
       <c r="AN51" s="6"/>
     </row>
@@ -6199,7 +6247,7 @@
       <c r="AH52" s="42"/>
       <c r="AI52" s="42"/>
       <c r="AJ52" s="43"/>
-      <c r="AK52" s="48"/>
+      <c r="AK52" s="42"/>
       <c r="AM52" s="6"/>
       <c r="AN52" s="6"/>
     </row>
@@ -6242,7 +6290,7 @@
       <c r="AH53" s="42"/>
       <c r="AI53" s="42"/>
       <c r="AJ53" s="43"/>
-      <c r="AK53" s="48"/>
+      <c r="AK53" s="42"/>
       <c r="AM53" s="6"/>
       <c r="AN53" s="6"/>
     </row>
@@ -6285,7 +6333,7 @@
       <c r="AH54" s="42"/>
       <c r="AI54" s="42"/>
       <c r="AJ54" s="43"/>
-      <c r="AK54" s="48"/>
+      <c r="AK54" s="42"/>
       <c r="AM54" s="6"/>
       <c r="AN54" s="6"/>
     </row>
@@ -6328,7 +6376,7 @@
       <c r="AH55" s="42"/>
       <c r="AI55" s="42"/>
       <c r="AJ55" s="43"/>
-      <c r="AK55" s="48"/>
+      <c r="AK55" s="42"/>
       <c r="AM55" s="6"/>
       <c r="AN55" s="6"/>
     </row>
@@ -6371,7 +6419,7 @@
       <c r="AH56" s="42"/>
       <c r="AI56" s="42"/>
       <c r="AJ56" s="43"/>
-      <c r="AK56" s="48"/>
+      <c r="AK56" s="42"/>
       <c r="AM56" s="6"/>
       <c r="AN56" s="6"/>
     </row>
@@ -6414,7 +6462,7 @@
       <c r="AH57" s="42"/>
       <c r="AI57" s="42"/>
       <c r="AJ57" s="43"/>
-      <c r="AK57" s="48"/>
+      <c r="AK57" s="42"/>
       <c r="AM57" s="6"/>
       <c r="AN57" s="6"/>
     </row>
@@ -6457,7 +6505,7 @@
       <c r="AH58" s="42"/>
       <c r="AI58" s="42"/>
       <c r="AJ58" s="43"/>
-      <c r="AK58" s="48"/>
+      <c r="AK58" s="42"/>
       <c r="AM58" s="6"/>
       <c r="AN58" s="6"/>
     </row>
@@ -6500,7 +6548,7 @@
       <c r="AH59" s="42"/>
       <c r="AI59" s="42"/>
       <c r="AJ59" s="43"/>
-      <c r="AK59" s="48"/>
+      <c r="AK59" s="42"/>
       <c r="AM59" s="6"/>
       <c r="AN59" s="6"/>
     </row>
@@ -6543,7 +6591,7 @@
       <c r="AH60" s="42"/>
       <c r="AI60" s="42"/>
       <c r="AJ60" s="43"/>
-      <c r="AK60" s="48"/>
+      <c r="AK60" s="42"/>
       <c r="AM60" s="6"/>
       <c r="AN60" s="6"/>
     </row>
@@ -6586,7 +6634,7 @@
       <c r="AH61" s="42"/>
       <c r="AI61" s="42"/>
       <c r="AJ61" s="43"/>
-      <c r="AK61" s="48"/>
+      <c r="AK61" s="42"/>
       <c r="AM61" s="6"/>
       <c r="AN61" s="6"/>
     </row>
@@ -6629,7 +6677,7 @@
       <c r="AH62" s="42"/>
       <c r="AI62" s="42"/>
       <c r="AJ62" s="43"/>
-      <c r="AK62" s="48"/>
+      <c r="AK62" s="42"/>
       <c r="AM62" s="6"/>
       <c r="AN62" s="6"/>
     </row>
@@ -6672,7 +6720,7 @@
       <c r="AH63" s="42"/>
       <c r="AI63" s="42"/>
       <c r="AJ63" s="43"/>
-      <c r="AK63" s="48"/>
+      <c r="AK63" s="42"/>
       <c r="AM63" s="6"/>
       <c r="AN63" s="6"/>
     </row>
@@ -6715,7 +6763,7 @@
       <c r="AH64" s="42"/>
       <c r="AI64" s="42"/>
       <c r="AJ64" s="43"/>
-      <c r="AK64" s="48"/>
+      <c r="AK64" s="42"/>
       <c r="AM64" s="6"/>
       <c r="AN64" s="6"/>
     </row>
@@ -6758,7 +6806,7 @@
       <c r="AH65" s="42"/>
       <c r="AI65" s="42"/>
       <c r="AJ65" s="43"/>
-      <c r="AK65" s="48"/>
+      <c r="AK65" s="42"/>
       <c r="AM65" s="6"/>
       <c r="AN65" s="6"/>
     </row>
@@ -6801,7 +6849,7 @@
       <c r="AH66" s="42"/>
       <c r="AI66" s="42"/>
       <c r="AJ66" s="43"/>
-      <c r="AK66" s="48"/>
+      <c r="AK66" s="42"/>
       <c r="AM66" s="6"/>
       <c r="AN66" s="6"/>
     </row>
@@ -6844,7 +6892,7 @@
       <c r="AH67" s="42"/>
       <c r="AI67" s="42"/>
       <c r="AJ67" s="43"/>
-      <c r="AK67" s="48"/>
+      <c r="AK67" s="42"/>
       <c r="AM67" s="6"/>
       <c r="AN67" s="6"/>
     </row>
@@ -6887,7 +6935,7 @@
       <c r="AH68" s="42"/>
       <c r="AI68" s="42"/>
       <c r="AJ68" s="43"/>
-      <c r="AK68" s="48"/>
+      <c r="AK68" s="42"/>
       <c r="AM68" s="6"/>
       <c r="AN68" s="6"/>
     </row>
@@ -6930,7 +6978,7 @@
       <c r="AH69" s="42"/>
       <c r="AI69" s="42"/>
       <c r="AJ69" s="43"/>
-      <c r="AK69" s="48"/>
+      <c r="AK69" s="42"/>
       <c r="AM69" s="6"/>
       <c r="AN69" s="6"/>
     </row>
@@ -6973,7 +7021,7 @@
       <c r="AH70" s="42"/>
       <c r="AI70" s="42"/>
       <c r="AJ70" s="43"/>
-      <c r="AK70" s="48"/>
+      <c r="AK70" s="42"/>
       <c r="AM70" s="6"/>
       <c r="AN70" s="6"/>
     </row>
@@ -7016,7 +7064,7 @@
       <c r="AH71" s="42"/>
       <c r="AI71" s="42"/>
       <c r="AJ71" s="43"/>
-      <c r="AK71" s="48"/>
+      <c r="AK71" s="42"/>
       <c r="AM71" s="6"/>
       <c r="AN71" s="6"/>
     </row>
@@ -7059,7 +7107,7 @@
       <c r="AH72" s="42"/>
       <c r="AI72" s="42"/>
       <c r="AJ72" s="43"/>
-      <c r="AK72" s="48"/>
+      <c r="AK72" s="42"/>
       <c r="AM72" s="6"/>
       <c r="AN72" s="6"/>
     </row>
@@ -7102,7 +7150,7 @@
       <c r="AH73" s="42"/>
       <c r="AI73" s="42"/>
       <c r="AJ73" s="43"/>
-      <c r="AK73" s="48"/>
+      <c r="AK73" s="42"/>
       <c r="AM73" s="6"/>
       <c r="AN73" s="6"/>
     </row>
@@ -7145,7 +7193,7 @@
       <c r="AH74" s="42"/>
       <c r="AI74" s="42"/>
       <c r="AJ74" s="43"/>
-      <c r="AK74" s="48"/>
+      <c r="AK74" s="42"/>
       <c r="AM74" s="6"/>
       <c r="AN74" s="6"/>
     </row>
@@ -7188,7 +7236,7 @@
       <c r="AH75" s="42"/>
       <c r="AI75" s="42"/>
       <c r="AJ75" s="43"/>
-      <c r="AK75" s="48"/>
+      <c r="AK75" s="42"/>
       <c r="AM75" s="6"/>
       <c r="AN75" s="6"/>
     </row>
@@ -7231,7 +7279,7 @@
       <c r="AH76" s="42"/>
       <c r="AI76" s="42"/>
       <c r="AJ76" s="43"/>
-      <c r="AK76" s="48"/>
+      <c r="AK76" s="42"/>
       <c r="AM76" s="6"/>
       <c r="AN76" s="6"/>
     </row>
@@ -7274,7 +7322,7 @@
       <c r="AH77" s="42"/>
       <c r="AI77" s="42"/>
       <c r="AJ77" s="43"/>
-      <c r="AK77" s="48"/>
+      <c r="AK77" s="42"/>
       <c r="AM77" s="6"/>
       <c r="AN77" s="6"/>
     </row>
@@ -7317,7 +7365,7 @@
       <c r="AH78" s="42"/>
       <c r="AI78" s="42"/>
       <c r="AJ78" s="43"/>
-      <c r="AK78" s="48"/>
+      <c r="AK78" s="42"/>
       <c r="AM78" s="6"/>
       <c r="AN78" s="6"/>
     </row>
@@ -7360,7 +7408,7 @@
       <c r="AH79" s="42"/>
       <c r="AI79" s="42"/>
       <c r="AJ79" s="43"/>
-      <c r="AK79" s="48"/>
+      <c r="AK79" s="42"/>
       <c r="AM79" s="6"/>
       <c r="AN79" s="6"/>
     </row>
@@ -7403,7 +7451,7 @@
       <c r="AH80" s="42"/>
       <c r="AI80" s="42"/>
       <c r="AJ80" s="43"/>
-      <c r="AK80" s="48"/>
+      <c r="AK80" s="42"/>
       <c r="AM80" s="6"/>
       <c r="AN80" s="6"/>
     </row>
@@ -7446,7 +7494,7 @@
       <c r="AH81" s="42"/>
       <c r="AI81" s="42"/>
       <c r="AJ81" s="43"/>
-      <c r="AK81" s="48"/>
+      <c r="AK81" s="42"/>
       <c r="AM81" s="6"/>
       <c r="AN81" s="6"/>
     </row>
@@ -7489,7 +7537,7 @@
       <c r="AH82" s="42"/>
       <c r="AI82" s="42"/>
       <c r="AJ82" s="43"/>
-      <c r="AK82" s="48"/>
+      <c r="AK82" s="42"/>
       <c r="AM82" s="6"/>
       <c r="AN82" s="6"/>
     </row>
@@ -7532,7 +7580,7 @@
       <c r="AH83" s="42"/>
       <c r="AI83" s="42"/>
       <c r="AJ83" s="43"/>
-      <c r="AK83" s="48"/>
+      <c r="AK83" s="42"/>
       <c r="AM83" s="6"/>
       <c r="AN83" s="6"/>
     </row>
@@ -7575,7 +7623,7 @@
       <c r="AH84" s="42"/>
       <c r="AI84" s="42"/>
       <c r="AJ84" s="43"/>
-      <c r="AK84" s="48"/>
+      <c r="AK84" s="42"/>
       <c r="AM84" s="6"/>
       <c r="AN84" s="6"/>
     </row>
@@ -7618,7 +7666,7 @@
       <c r="AH85" s="42"/>
       <c r="AI85" s="42"/>
       <c r="AJ85" s="43"/>
-      <c r="AK85" s="48"/>
+      <c r="AK85" s="42"/>
       <c r="AM85" s="6"/>
       <c r="AN85" s="6"/>
     </row>
@@ -7661,7 +7709,7 @@
       <c r="AH86" s="42"/>
       <c r="AI86" s="42"/>
       <c r="AJ86" s="43"/>
-      <c r="AK86" s="48"/>
+      <c r="AK86" s="42"/>
       <c r="AM86" s="6"/>
       <c r="AN86" s="6"/>
     </row>
@@ -7704,7 +7752,7 @@
       <c r="AH87" s="42"/>
       <c r="AI87" s="42"/>
       <c r="AJ87" s="43"/>
-      <c r="AK87" s="48"/>
+      <c r="AK87" s="42"/>
       <c r="AM87" s="6"/>
       <c r="AN87" s="6"/>
     </row>
@@ -7747,7 +7795,7 @@
       <c r="AH88" s="42"/>
       <c r="AI88" s="42"/>
       <c r="AJ88" s="43"/>
-      <c r="AK88" s="48"/>
+      <c r="AK88" s="42"/>
       <c r="AM88" s="6"/>
       <c r="AN88" s="6"/>
     </row>
@@ -7790,7 +7838,7 @@
       <c r="AH89" s="42"/>
       <c r="AI89" s="42"/>
       <c r="AJ89" s="43"/>
-      <c r="AK89" s="48"/>
+      <c r="AK89" s="42"/>
       <c r="AM89" s="6"/>
       <c r="AN89" s="6"/>
     </row>
@@ -7833,7 +7881,7 @@
       <c r="AH90" s="42"/>
       <c r="AI90" s="42"/>
       <c r="AJ90" s="43"/>
-      <c r="AK90" s="48"/>
+      <c r="AK90" s="42"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="6"/>
     </row>
@@ -7876,7 +7924,7 @@
       <c r="AH91" s="42"/>
       <c r="AI91" s="42"/>
       <c r="AJ91" s="43"/>
-      <c r="AK91" s="48"/>
+      <c r="AK91" s="42"/>
       <c r="AM91" s="6"/>
       <c r="AN91" s="6"/>
     </row>
@@ -7919,12 +7967,12 @@
       <c r="AH92" s="42"/>
       <c r="AI92" s="42"/>
       <c r="AJ92" s="43"/>
-      <c r="AK92" s="48"/>
+      <c r="AK92" s="42"/>
       <c r="AM92" s="6"/>
       <c r="AN92" s="6"/>
     </row>
     <row r="93" spans="1:38">
-      <c r="A93" s="49"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -7944,10 +7992,10 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="Y93" s="4"/>
-      <c r="AL93" s="50"/>
+      <c r="AL93" s="49"/>
     </row>
     <row r="94" spans="1:25">
-      <c r="A94" s="49"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -7969,7 +8017,7 @@
       <c r="Y94" s="4"/>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" s="49"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -7991,7 +8039,7 @@
       <c r="Y95" s="4"/>
     </row>
     <row r="96" spans="1:25">
-      <c r="A96" s="49"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -8013,7 +8061,7 @@
       <c r="Y96" s="4"/>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" s="49"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -8035,7 +8083,7 @@
       <c r="Y97" s="4"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="49"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -8057,7 +8105,7 @@
       <c r="Y98" s="4"/>
     </row>
     <row r="99" spans="1:25">
-      <c r="A99" s="49"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -8079,7 +8127,7 @@
       <c r="Y99" s="4"/>
     </row>
     <row r="100" spans="1:25">
-      <c r="A100" s="49"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8101,7 +8149,7 @@
       <c r="Y100" s="4"/>
     </row>
     <row r="101" spans="1:25">
-      <c r="A101" s="49"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -8123,7 +8171,7 @@
       <c r="Y101" s="4"/>
     </row>
     <row r="102" spans="1:25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -8145,7 +8193,7 @@
       <c r="Y102" s="4"/>
     </row>
     <row r="103" spans="1:25">
-      <c r="A103" s="49"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -8167,7 +8215,7 @@
       <c r="Y103" s="4"/>
     </row>
     <row r="104" spans="1:25">
-      <c r="A104" s="49"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -8189,7 +8237,7 @@
       <c r="Y104" s="4"/>
     </row>
     <row r="105" spans="1:25">
-      <c r="A105" s="49"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -8211,7 +8259,7 @@
       <c r="Y105" s="4"/>
     </row>
     <row r="106" spans="1:25">
-      <c r="A106" s="49"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -8233,7 +8281,7 @@
       <c r="Y106" s="4"/>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107" s="49"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -8255,7 +8303,7 @@
       <c r="Y107" s="4"/>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108" s="49"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -8277,7 +8325,7 @@
       <c r="Y108" s="4"/>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109" s="49"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -8299,7 +8347,7 @@
       <c r="Y109" s="4"/>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110" s="49"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -8321,7 +8369,7 @@
       <c r="Y110" s="4"/>
     </row>
     <row r="111" spans="1:25">
-      <c r="A111" s="49"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -8343,7 +8391,7 @@
       <c r="Y111" s="4"/>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112" s="49"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -8365,7 +8413,7 @@
       <c r="Y112" s="4"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="49"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -8387,7 +8435,7 @@
       <c r="Y113" s="4"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114" s="49"/>
+      <c r="A114" s="48"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -8409,7 +8457,7 @@
       <c r="Y114" s="4"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="49"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -8431,7 +8479,7 @@
       <c r="Y115" s="4"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116" s="49"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -8453,7 +8501,7 @@
       <c r="Y116" s="4"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="49"/>
+      <c r="A117" s="48"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -8475,7 +8523,7 @@
       <c r="Y117" s="4"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="49"/>
+      <c r="A118" s="48"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -8497,7 +8545,7 @@
       <c r="Y118" s="4"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="49"/>
+      <c r="A119" s="48"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8519,7 +8567,7 @@
       <c r="Y119" s="4"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120" s="49"/>
+      <c r="A120" s="48"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -8541,7 +8589,7 @@
       <c r="Y120" s="4"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121" s="49"/>
+      <c r="A121" s="48"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -8563,7 +8611,7 @@
       <c r="Y121" s="4"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122" s="49"/>
+      <c r="A122" s="48"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -8585,7 +8633,7 @@
       <c r="Y122" s="4"/>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123" s="49"/>
+      <c r="A123" s="48"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -8607,7 +8655,7 @@
       <c r="Y123" s="4"/>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124" s="49"/>
+      <c r="A124" s="48"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -8629,7 +8677,7 @@
       <c r="Y124" s="4"/>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125" s="49"/>
+      <c r="A125" s="48"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -8651,7 +8699,7 @@
       <c r="Y125" s="4"/>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126" s="49"/>
+      <c r="A126" s="48"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -8673,7 +8721,7 @@
       <c r="Y126" s="4"/>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127" s="49"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -8695,7 +8743,7 @@
       <c r="Y127" s="4"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="49"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -8717,7 +8765,7 @@
       <c r="Y128" s="4"/>
     </row>
     <row r="129" spans="1:25">
-      <c r="A129" s="49"/>
+      <c r="A129" s="48"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -8739,7 +8787,7 @@
       <c r="Y129" s="4"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="49"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -8761,7 +8809,7 @@
       <c r="Y130" s="4"/>
     </row>
     <row r="131" spans="1:25">
-      <c r="A131" s="49"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -8783,7 +8831,7 @@
       <c r="Y131" s="4"/>
     </row>
     <row r="132" spans="1:25">
-      <c r="A132" s="49"/>
+      <c r="A132" s="48"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -8805,7 +8853,7 @@
       <c r="Y132" s="4"/>
     </row>
     <row r="133" spans="1:25">
-      <c r="A133" s="49"/>
+      <c r="A133" s="48"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -8827,7 +8875,7 @@
       <c r="Y133" s="4"/>
     </row>
     <row r="134" spans="1:25">
-      <c r="A134" s="49"/>
+      <c r="A134" s="48"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -8849,7 +8897,7 @@
       <c r="Y134" s="4"/>
     </row>
     <row r="135" spans="1:25">
-      <c r="A135" s="49"/>
+      <c r="A135" s="48"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -8871,7 +8919,7 @@
       <c r="Y135" s="4"/>
     </row>
     <row r="136" spans="1:25">
-      <c r="A136" s="49"/>
+      <c r="A136" s="48"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -8893,7 +8941,7 @@
       <c r="Y136" s="4"/>
     </row>
     <row r="137" spans="1:25">
-      <c r="A137" s="49"/>
+      <c r="A137" s="48"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -8915,7 +8963,7 @@
       <c r="Y137" s="4"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="A138" s="49"/>
+      <c r="A138" s="48"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -8937,7 +8985,7 @@
       <c r="Y138" s="4"/>
     </row>
     <row r="139" spans="1:25">
-      <c r="A139" s="49"/>
+      <c r="A139" s="48"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -8959,7 +9007,7 @@
       <c r="Y139" s="4"/>
     </row>
     <row r="140" spans="1:25">
-      <c r="A140" s="49"/>
+      <c r="A140" s="48"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -8981,7 +9029,7 @@
       <c r="Y140" s="4"/>
     </row>
     <row r="141" spans="1:25">
-      <c r="A141" s="49"/>
+      <c r="A141" s="48"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -9003,7 +9051,7 @@
       <c r="Y141" s="4"/>
     </row>
     <row r="142" spans="1:25">
-      <c r="A142" s="49"/>
+      <c r="A142" s="48"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -9025,7 +9073,7 @@
       <c r="Y142" s="4"/>
     </row>
     <row r="143" spans="1:25">
-      <c r="A143" s="49"/>
+      <c r="A143" s="48"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -9047,7 +9095,7 @@
       <c r="Y143" s="4"/>
     </row>
     <row r="144" spans="1:25">
-      <c r="A144" s="49"/>
+      <c r="A144" s="48"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -9069,7 +9117,7 @@
       <c r="Y144" s="4"/>
     </row>
     <row r="145" spans="1:25">
-      <c r="A145" s="49"/>
+      <c r="A145" s="48"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -9091,7 +9139,7 @@
       <c r="Y145" s="4"/>
     </row>
     <row r="146" spans="1:25">
-      <c r="A146" s="49"/>
+      <c r="A146" s="48"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -9113,7 +9161,7 @@
       <c r="Y146" s="4"/>
     </row>
     <row r="147" spans="1:25">
-      <c r="A147" s="49"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -9135,7 +9183,7 @@
       <c r="Y147" s="4"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="A148" s="49"/>
+      <c r="A148" s="48"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -9157,7 +9205,7 @@
       <c r="Y148" s="4"/>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="49"/>
+      <c r="A149" s="48"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -9179,7 +9227,7 @@
       <c r="Y149" s="4"/>
     </row>
     <row r="150" spans="1:25">
-      <c r="A150" s="49"/>
+      <c r="A150" s="48"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -9201,7 +9249,7 @@
       <c r="Y150" s="4"/>
     </row>
     <row r="151" spans="1:25">
-      <c r="A151" s="49"/>
+      <c r="A151" s="48"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -9223,7 +9271,7 @@
       <c r="Y151" s="4"/>
     </row>
     <row r="152" spans="1:25">
-      <c r="A152" s="49"/>
+      <c r="A152" s="48"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -9245,7 +9293,7 @@
       <c r="Y152" s="4"/>
     </row>
     <row r="153" spans="1:25">
-      <c r="A153" s="49"/>
+      <c r="A153" s="48"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -9267,7 +9315,7 @@
       <c r="Y153" s="4"/>
     </row>
     <row r="154" spans="1:25">
-      <c r="A154" s="49"/>
+      <c r="A154" s="48"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -9289,7 +9337,7 @@
       <c r="Y154" s="4"/>
     </row>
     <row r="155" spans="1:25">
-      <c r="A155" s="49"/>
+      <c r="A155" s="48"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -9311,7 +9359,7 @@
       <c r="Y155" s="4"/>
     </row>
     <row r="156" spans="1:25">
-      <c r="A156" s="49"/>
+      <c r="A156" s="48"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -9333,7 +9381,7 @@
       <c r="Y156" s="4"/>
     </row>
     <row r="157" spans="1:25">
-      <c r="A157" s="49"/>
+      <c r="A157" s="48"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -9355,7 +9403,7 @@
       <c r="Y157" s="4"/>
     </row>
     <row r="158" spans="1:25">
-      <c r="A158" s="49"/>
+      <c r="A158" s="48"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -9377,7 +9425,7 @@
       <c r="Y158" s="4"/>
     </row>
     <row r="159" spans="1:25">
-      <c r="A159" s="49"/>
+      <c r="A159" s="48"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -9399,7 +9447,7 @@
       <c r="Y159" s="4"/>
     </row>
     <row r="160" spans="1:25">
-      <c r="A160" s="49"/>
+      <c r="A160" s="48"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -9421,7 +9469,7 @@
       <c r="Y160" s="4"/>
     </row>
     <row r="161" spans="1:25">
-      <c r="A161" s="49"/>
+      <c r="A161" s="48"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -9443,7 +9491,7 @@
       <c r="Y161" s="4"/>
     </row>
     <row r="162" spans="1:25">
-      <c r="A162" s="49"/>
+      <c r="A162" s="48"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -9465,7 +9513,7 @@
       <c r="Y162" s="4"/>
     </row>
     <row r="163" spans="1:25">
-      <c r="A163" s="49"/>
+      <c r="A163" s="48"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -9487,7 +9535,7 @@
       <c r="Y163" s="4"/>
     </row>
     <row r="164" spans="1:25">
-      <c r="A164" s="49"/>
+      <c r="A164" s="48"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -9509,7 +9557,7 @@
       <c r="Y164" s="4"/>
     </row>
     <row r="165" spans="1:25">
-      <c r="A165" s="49"/>
+      <c r="A165" s="48"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -9531,7 +9579,7 @@
       <c r="Y165" s="4"/>
     </row>
     <row r="166" spans="1:25">
-      <c r="A166" s="49"/>
+      <c r="A166" s="48"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -9553,7 +9601,7 @@
       <c r="Y166" s="4"/>
     </row>
     <row r="167" spans="1:25">
-      <c r="A167" s="49"/>
+      <c r="A167" s="48"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -9575,7 +9623,7 @@
       <c r="Y167" s="4"/>
     </row>
     <row r="168" spans="1:25">
-      <c r="A168" s="49"/>
+      <c r="A168" s="48"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -9597,7 +9645,7 @@
       <c r="Y168" s="4"/>
     </row>
     <row r="169" spans="1:25">
-      <c r="A169" s="49"/>
+      <c r="A169" s="48"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -9619,7 +9667,7 @@
       <c r="Y169" s="4"/>
     </row>
     <row r="170" spans="1:25">
-      <c r="A170" s="49"/>
+      <c r="A170" s="48"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -9641,7 +9689,7 @@
       <c r="Y170" s="4"/>
     </row>
     <row r="171" spans="1:25">
-      <c r="A171" s="49"/>
+      <c r="A171" s="48"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -9663,7 +9711,7 @@
       <c r="Y171" s="4"/>
     </row>
     <row r="172" spans="1:25">
-      <c r="A172" s="49"/>
+      <c r="A172" s="48"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -9685,7 +9733,7 @@
       <c r="Y172" s="4"/>
     </row>
     <row r="173" spans="1:25">
-      <c r="A173" s="49"/>
+      <c r="A173" s="48"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -9707,7 +9755,7 @@
       <c r="Y173" s="4"/>
     </row>
     <row r="174" spans="1:25">
-      <c r="A174" s="49"/>
+      <c r="A174" s="48"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -9729,7 +9777,7 @@
       <c r="Y174" s="4"/>
     </row>
     <row r="175" spans="1:25">
-      <c r="A175" s="49"/>
+      <c r="A175" s="48"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -9751,7 +9799,7 @@
       <c r="Y175" s="4"/>
     </row>
     <row r="176" spans="1:25">
-      <c r="A176" s="49"/>
+      <c r="A176" s="48"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -9773,7 +9821,7 @@
       <c r="Y176" s="4"/>
     </row>
     <row r="177" spans="1:25">
-      <c r="A177" s="49"/>
+      <c r="A177" s="48"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -9795,7 +9843,7 @@
       <c r="Y177" s="4"/>
     </row>
     <row r="178" spans="1:25">
-      <c r="A178" s="49"/>
+      <c r="A178" s="48"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -9817,7 +9865,7 @@
       <c r="Y178" s="4"/>
     </row>
     <row r="179" spans="1:25">
-      <c r="A179" s="49"/>
+      <c r="A179" s="48"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -9839,7 +9887,7 @@
       <c r="Y179" s="4"/>
     </row>
     <row r="180" spans="1:25">
-      <c r="A180" s="49"/>
+      <c r="A180" s="48"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -9861,7 +9909,7 @@
       <c r="Y180" s="4"/>
     </row>
     <row r="181" spans="1:25">
-      <c r="A181" s="49"/>
+      <c r="A181" s="48"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -9883,7 +9931,7 @@
       <c r="Y181" s="4"/>
     </row>
     <row r="182" spans="1:25">
-      <c r="A182" s="49"/>
+      <c r="A182" s="48"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -9905,7 +9953,7 @@
       <c r="Y182" s="4"/>
     </row>
     <row r="183" spans="1:25">
-      <c r="A183" s="49"/>
+      <c r="A183" s="48"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -9927,7 +9975,7 @@
       <c r="Y183" s="4"/>
     </row>
     <row r="184" spans="1:25">
-      <c r="A184" s="49"/>
+      <c r="A184" s="48"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -9949,7 +9997,7 @@
       <c r="Y184" s="4"/>
     </row>
     <row r="185" spans="1:25">
-      <c r="A185" s="49"/>
+      <c r="A185" s="48"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -9971,7 +10019,7 @@
       <c r="Y185" s="4"/>
     </row>
     <row r="186" spans="1:25">
-      <c r="A186" s="49"/>
+      <c r="A186" s="48"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -9993,7 +10041,7 @@
       <c r="Y186" s="4"/>
     </row>
     <row r="187" spans="1:25">
-      <c r="A187" s="49"/>
+      <c r="A187" s="48"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -10015,7 +10063,7 @@
       <c r="Y187" s="4"/>
     </row>
     <row r="188" spans="1:25">
-      <c r="A188" s="49"/>
+      <c r="A188" s="48"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -10037,7 +10085,7 @@
       <c r="Y188" s="4"/>
     </row>
     <row r="189" spans="1:25">
-      <c r="A189" s="49"/>
+      <c r="A189" s="48"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -10059,7 +10107,7 @@
       <c r="Y189" s="4"/>
     </row>
     <row r="190" spans="1:25">
-      <c r="A190" s="49"/>
+      <c r="A190" s="48"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -10081,7 +10129,7 @@
       <c r="Y190" s="4"/>
     </row>
     <row r="191" spans="1:25">
-      <c r="A191" s="49"/>
+      <c r="A191" s="48"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -10103,7 +10151,7 @@
       <c r="Y191" s="4"/>
     </row>
     <row r="192" spans="1:25">
-      <c r="A192" s="49"/>
+      <c r="A192" s="48"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -10125,7 +10173,7 @@
       <c r="Y192" s="4"/>
     </row>
     <row r="193" spans="1:25">
-      <c r="A193" s="49"/>
+      <c r="A193" s="48"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -10147,7 +10195,7 @@
       <c r="Y193" s="4"/>
     </row>
     <row r="194" spans="1:25">
-      <c r="A194" s="49"/>
+      <c r="A194" s="48"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -10169,7 +10217,7 @@
       <c r="Y194" s="4"/>
     </row>
     <row r="195" spans="1:25">
-      <c r="A195" s="49"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -10191,7 +10239,7 @@
       <c r="Y195" s="4"/>
     </row>
     <row r="196" spans="1:25">
-      <c r="A196" s="49"/>
+      <c r="A196" s="48"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -10213,7 +10261,7 @@
       <c r="Y196" s="4"/>
     </row>
     <row r="197" spans="1:25">
-      <c r="A197" s="49"/>
+      <c r="A197" s="48"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -10235,7 +10283,7 @@
       <c r="Y197" s="4"/>
     </row>
     <row r="198" spans="1:25">
-      <c r="A198" s="49"/>
+      <c r="A198" s="48"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -10257,7 +10305,7 @@
       <c r="Y198" s="4"/>
     </row>
     <row r="199" spans="1:25">
-      <c r="A199" s="49"/>
+      <c r="A199" s="48"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -10279,7 +10327,7 @@
       <c r="Y199" s="4"/>
     </row>
     <row r="200" spans="1:25">
-      <c r="A200" s="49"/>
+      <c r="A200" s="48"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -10301,7 +10349,7 @@
       <c r="Y200" s="4"/>
     </row>
     <row r="201" spans="1:25">
-      <c r="A201" s="49"/>
+      <c r="A201" s="48"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -10323,7 +10371,7 @@
       <c r="Y201" s="4"/>
     </row>
     <row r="202" spans="1:25">
-      <c r="A202" s="49"/>
+      <c r="A202" s="48"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -10345,7 +10393,7 @@
       <c r="Y202" s="4"/>
     </row>
     <row r="203" spans="1:25">
-      <c r="A203" s="49"/>
+      <c r="A203" s="48"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -10367,7 +10415,7 @@
       <c r="Y203" s="4"/>
     </row>
     <row r="204" spans="1:25">
-      <c r="A204" s="49"/>
+      <c r="A204" s="48"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -10389,7 +10437,7 @@
       <c r="Y204" s="4"/>
     </row>
     <row r="205" spans="1:25">
-      <c r="A205" s="49"/>
+      <c r="A205" s="48"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -10411,7 +10459,7 @@
       <c r="Y205" s="4"/>
     </row>
     <row r="206" spans="1:25">
-      <c r="A206" s="49"/>
+      <c r="A206" s="48"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -10433,7 +10481,7 @@
       <c r="Y206" s="4"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="A207" s="49"/>
+      <c r="A207" s="48"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -10455,7 +10503,7 @@
       <c r="Y207" s="4"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="A208" s="49"/>
+      <c r="A208" s="48"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -10477,7 +10525,7 @@
       <c r="Y208" s="4"/>
     </row>
     <row r="209" spans="1:25">
-      <c r="A209" s="49"/>
+      <c r="A209" s="48"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -10499,7 +10547,7 @@
       <c r="Y209" s="4"/>
     </row>
     <row r="210" spans="1:25">
-      <c r="A210" s="49"/>
+      <c r="A210" s="48"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -10521,7 +10569,7 @@
       <c r="Y210" s="4"/>
     </row>
     <row r="211" spans="1:25">
-      <c r="A211" s="49"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -10543,7 +10591,7 @@
       <c r="Y211" s="4"/>
     </row>
     <row r="212" spans="1:25">
-      <c r="A212" s="49"/>
+      <c r="A212" s="48"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -10565,7 +10613,7 @@
       <c r="Y212" s="4"/>
     </row>
     <row r="213" spans="1:25">
-      <c r="A213" s="49"/>
+      <c r="A213" s="48"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -10587,7 +10635,7 @@
       <c r="Y213" s="4"/>
     </row>
     <row r="214" spans="1:25">
-      <c r="A214" s="49"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -10609,7 +10657,7 @@
       <c r="Y214" s="4"/>
     </row>
     <row r="215" spans="1:25">
-      <c r="A215" s="49"/>
+      <c r="A215" s="48"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -10631,7 +10679,7 @@
       <c r="Y215" s="4"/>
     </row>
     <row r="216" spans="1:25">
-      <c r="A216" s="49"/>
+      <c r="A216" s="48"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -10653,7 +10701,7 @@
       <c r="Y216" s="4"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="A217" s="49"/>
+      <c r="A217" s="48"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -10675,7 +10723,7 @@
       <c r="Y217" s="4"/>
     </row>
     <row r="218" spans="1:25">
-      <c r="A218" s="49"/>
+      <c r="A218" s="48"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -10697,7 +10745,7 @@
       <c r="Y218" s="4"/>
     </row>
     <row r="219" spans="1:25">
-      <c r="A219" s="49"/>
+      <c r="A219" s="48"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -10719,7 +10767,7 @@
       <c r="Y219" s="4"/>
     </row>
     <row r="220" spans="1:25">
-      <c r="A220" s="49"/>
+      <c r="A220" s="48"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -10741,7 +10789,7 @@
       <c r="Y220" s="4"/>
     </row>
     <row r="221" spans="1:25">
-      <c r="A221" s="49"/>
+      <c r="A221" s="48"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -10763,7 +10811,7 @@
       <c r="Y221" s="4"/>
     </row>
     <row r="222" spans="1:25">
-      <c r="A222" s="49"/>
+      <c r="A222" s="48"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -10785,7 +10833,7 @@
       <c r="Y222" s="4"/>
     </row>
     <row r="223" spans="1:25">
-      <c r="A223" s="49"/>
+      <c r="A223" s="48"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -10807,7 +10855,7 @@
       <c r="Y223" s="4"/>
     </row>
     <row r="224" spans="1:25">
-      <c r="A224" s="49"/>
+      <c r="A224" s="48"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -10829,7 +10877,7 @@
       <c r="Y224" s="4"/>
     </row>
     <row r="225" spans="1:25">
-      <c r="A225" s="49"/>
+      <c r="A225" s="48"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -10851,7 +10899,7 @@
       <c r="Y225" s="4"/>
     </row>
     <row r="226" spans="1:25">
-      <c r="A226" s="49"/>
+      <c r="A226" s="48"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -10873,7 +10921,7 @@
       <c r="Y226" s="4"/>
     </row>
     <row r="227" spans="1:25">
-      <c r="A227" s="49"/>
+      <c r="A227" s="48"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -10895,7 +10943,7 @@
       <c r="Y227" s="4"/>
     </row>
     <row r="228" spans="1:25">
-      <c r="A228" s="49"/>
+      <c r="A228" s="48"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -10917,7 +10965,7 @@
       <c r="Y228" s="4"/>
     </row>
     <row r="229" spans="1:25">
-      <c r="A229" s="49"/>
+      <c r="A229" s="48"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -10939,7 +10987,7 @@
       <c r="Y229" s="4"/>
     </row>
     <row r="230" spans="1:25">
-      <c r="A230" s="49"/>
+      <c r="A230" s="48"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -10961,7 +11009,7 @@
       <c r="Y230" s="4"/>
     </row>
     <row r="231" spans="1:25">
-      <c r="A231" s="49"/>
+      <c r="A231" s="48"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -10983,7 +11031,7 @@
       <c r="Y231" s="4"/>
     </row>
     <row r="232" spans="1:25">
-      <c r="A232" s="49"/>
+      <c r="A232" s="48"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -11005,7 +11053,7 @@
       <c r="Y232" s="4"/>
     </row>
     <row r="233" spans="1:25">
-      <c r="A233" s="49"/>
+      <c r="A233" s="48"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -11027,7 +11075,7 @@
       <c r="Y233" s="4"/>
     </row>
     <row r="234" spans="1:25">
-      <c r="A234" s="49"/>
+      <c r="A234" s="48"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -11049,7 +11097,7 @@
       <c r="Y234" s="4"/>
     </row>
     <row r="235" spans="1:25">
-      <c r="A235" s="49"/>
+      <c r="A235" s="48"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -11071,7 +11119,7 @@
       <c r="Y235" s="4"/>
     </row>
     <row r="236" spans="1:25">
-      <c r="A236" s="49"/>
+      <c r="A236" s="48"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -11093,7 +11141,7 @@
       <c r="Y236" s="4"/>
     </row>
     <row r="237" spans="1:25">
-      <c r="A237" s="49"/>
+      <c r="A237" s="48"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -11115,7 +11163,7 @@
       <c r="Y237" s="4"/>
     </row>
     <row r="238" spans="1:25">
-      <c r="A238" s="49"/>
+      <c r="A238" s="48"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -11137,7 +11185,7 @@
       <c r="Y238" s="4"/>
     </row>
     <row r="239" spans="1:25">
-      <c r="A239" s="49"/>
+      <c r="A239" s="48"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -11159,7 +11207,7 @@
       <c r="Y239" s="4"/>
     </row>
     <row r="240" spans="1:25">
-      <c r="A240" s="49"/>
+      <c r="A240" s="48"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -11181,7 +11229,7 @@
       <c r="Y240" s="4"/>
     </row>
     <row r="241" spans="1:25">
-      <c r="A241" s="49"/>
+      <c r="A241" s="48"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -11203,7 +11251,7 @@
       <c r="Y241" s="4"/>
     </row>
     <row r="242" spans="1:25">
-      <c r="A242" s="49"/>
+      <c r="A242" s="48"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -11225,7 +11273,7 @@
       <c r="Y242" s="4"/>
     </row>
     <row r="243" spans="1:25">
-      <c r="A243" s="49"/>
+      <c r="A243" s="48"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -11247,7 +11295,7 @@
       <c r="Y243" s="4"/>
     </row>
     <row r="244" spans="1:25">
-      <c r="A244" s="49"/>
+      <c r="A244" s="48"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -11269,7 +11317,7 @@
       <c r="Y244" s="4"/>
     </row>
     <row r="245" spans="1:25">
-      <c r="A245" s="49"/>
+      <c r="A245" s="48"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -11291,7 +11339,7 @@
       <c r="Y245" s="4"/>
     </row>
     <row r="246" spans="1:25">
-      <c r="A246" s="49"/>
+      <c r="A246" s="48"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -11313,7 +11361,7 @@
       <c r="Y246" s="4"/>
     </row>
     <row r="247" spans="1:25">
-      <c r="A247" s="49"/>
+      <c r="A247" s="48"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -11335,7 +11383,7 @@
       <c r="Y247" s="4"/>
     </row>
     <row r="248" spans="1:25">
-      <c r="A248" s="49"/>
+      <c r="A248" s="48"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -11357,7 +11405,7 @@
       <c r="Y248" s="4"/>
     </row>
     <row r="249" spans="1:25">
-      <c r="A249" s="49"/>
+      <c r="A249" s="48"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -11379,7 +11427,7 @@
       <c r="Y249" s="4"/>
     </row>
     <row r="250" spans="1:25">
-      <c r="A250" s="49"/>
+      <c r="A250" s="48"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -11401,7 +11449,7 @@
       <c r="Y250" s="4"/>
     </row>
     <row r="251" spans="1:25">
-      <c r="A251" s="49"/>
+      <c r="A251" s="48"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -11423,7 +11471,7 @@
       <c r="Y251" s="4"/>
     </row>
     <row r="252" spans="1:25">
-      <c r="A252" s="49"/>
+      <c r="A252" s="48"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -11445,7 +11493,7 @@
       <c r="Y252" s="4"/>
     </row>
     <row r="253" spans="1:25">
-      <c r="A253" s="49"/>
+      <c r="A253" s="48"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -11467,7 +11515,7 @@
       <c r="Y253" s="4"/>
     </row>
     <row r="254" spans="1:25">
-      <c r="A254" s="49"/>
+      <c r="A254" s="48"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -11489,7 +11537,7 @@
       <c r="Y254" s="4"/>
     </row>
     <row r="255" spans="1:25">
-      <c r="A255" s="49"/>
+      <c r="A255" s="48"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -11511,7 +11559,7 @@
       <c r="Y255" s="4"/>
     </row>
     <row r="256" spans="1:25">
-      <c r="A256" s="49"/>
+      <c r="A256" s="48"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -11533,7 +11581,7 @@
       <c r="Y256" s="4"/>
     </row>
     <row r="257" spans="1:25">
-      <c r="A257" s="49"/>
+      <c r="A257" s="48"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -11555,7 +11603,7 @@
       <c r="Y257" s="4"/>
     </row>
     <row r="258" spans="1:25">
-      <c r="A258" s="49"/>
+      <c r="A258" s="48"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -11577,7 +11625,7 @@
       <c r="Y258" s="4"/>
     </row>
     <row r="259" spans="1:25">
-      <c r="A259" s="49"/>
+      <c r="A259" s="48"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -11599,7 +11647,7 @@
       <c r="Y259" s="4"/>
     </row>
     <row r="260" spans="1:25">
-      <c r="A260" s="49"/>
+      <c r="A260" s="48"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -11621,7 +11669,7 @@
       <c r="Y260" s="4"/>
     </row>
     <row r="261" spans="1:25">
-      <c r="A261" s="49"/>
+      <c r="A261" s="48"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -11643,7 +11691,7 @@
       <c r="Y261" s="4"/>
     </row>
     <row r="262" spans="1:25">
-      <c r="A262" s="49"/>
+      <c r="A262" s="48"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -11665,7 +11713,7 @@
       <c r="Y262" s="4"/>
     </row>
     <row r="263" spans="1:25">
-      <c r="A263" s="49"/>
+      <c r="A263" s="48"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -11687,7 +11735,7 @@
       <c r="Y263" s="4"/>
     </row>
     <row r="264" spans="1:25">
-      <c r="A264" s="49"/>
+      <c r="A264" s="48"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -11709,7 +11757,7 @@
       <c r="Y264" s="4"/>
     </row>
     <row r="265" spans="1:25">
-      <c r="A265" s="49"/>
+      <c r="A265" s="48"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -11731,7 +11779,7 @@
       <c r="Y265" s="4"/>
     </row>
     <row r="266" spans="1:25">
-      <c r="A266" s="49"/>
+      <c r="A266" s="48"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -11753,7 +11801,7 @@
       <c r="Y266" s="4"/>
     </row>
     <row r="267" spans="1:25">
-      <c r="A267" s="49"/>
+      <c r="A267" s="48"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -11775,7 +11823,7 @@
       <c r="Y267" s="4"/>
     </row>
     <row r="268" spans="1:25">
-      <c r="A268" s="49"/>
+      <c r="A268" s="48"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -11797,7 +11845,7 @@
       <c r="Y268" s="4"/>
     </row>
     <row r="269" spans="1:25">
-      <c r="A269" s="49"/>
+      <c r="A269" s="48"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -11819,7 +11867,7 @@
       <c r="Y269" s="4"/>
     </row>
     <row r="270" spans="1:25">
-      <c r="A270" s="49"/>
+      <c r="A270" s="48"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -11841,7 +11889,7 @@
       <c r="Y270" s="4"/>
     </row>
     <row r="271" spans="1:25">
-      <c r="A271" s="49"/>
+      <c r="A271" s="48"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -11863,7 +11911,7 @@
       <c r="Y271" s="4"/>
     </row>
     <row r="272" spans="1:25">
-      <c r="A272" s="49"/>
+      <c r="A272" s="48"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -11885,7 +11933,7 @@
       <c r="Y272" s="4"/>
     </row>
     <row r="273" spans="1:25">
-      <c r="A273" s="49"/>
+      <c r="A273" s="48"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -11907,7 +11955,7 @@
       <c r="Y273" s="4"/>
     </row>
     <row r="274" spans="1:25">
-      <c r="A274" s="49"/>
+      <c r="A274" s="48"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -11929,7 +11977,7 @@
       <c r="Y274" s="4"/>
     </row>
     <row r="275" spans="1:25">
-      <c r="A275" s="49"/>
+      <c r="A275" s="48"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -11951,7 +11999,7 @@
       <c r="Y275" s="4"/>
     </row>
     <row r="276" spans="1:25">
-      <c r="A276" s="49"/>
+      <c r="A276" s="48"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -11973,7 +12021,7 @@
       <c r="Y276" s="4"/>
     </row>
     <row r="277" spans="1:25">
-      <c r="A277" s="49"/>
+      <c r="A277" s="48"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -11995,7 +12043,7 @@
       <c r="Y277" s="4"/>
     </row>
     <row r="278" spans="1:25">
-      <c r="A278" s="49"/>
+      <c r="A278" s="48"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -12017,7 +12065,7 @@
       <c r="Y278" s="4"/>
     </row>
     <row r="279" spans="1:25">
-      <c r="A279" s="49"/>
+      <c r="A279" s="48"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -12039,7 +12087,7 @@
       <c r="Y279" s="4"/>
     </row>
     <row r="280" spans="1:25">
-      <c r="A280" s="49"/>
+      <c r="A280" s="48"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -12061,7 +12109,7 @@
       <c r="Y280" s="4"/>
     </row>
     <row r="281" spans="1:25">
-      <c r="A281" s="49"/>
+      <c r="A281" s="48"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -12083,7 +12131,7 @@
       <c r="Y281" s="4"/>
     </row>
     <row r="282" spans="1:25">
-      <c r="A282" s="49"/>
+      <c r="A282" s="48"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -12105,7 +12153,7 @@
       <c r="Y282" s="4"/>
     </row>
     <row r="283" spans="1:25">
-      <c r="A283" s="49"/>
+      <c r="A283" s="48"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -12127,7 +12175,7 @@
       <c r="Y283" s="4"/>
     </row>
     <row r="284" spans="1:25">
-      <c r="A284" s="49"/>
+      <c r="A284" s="48"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -12149,7 +12197,7 @@
       <c r="Y284" s="4"/>
     </row>
     <row r="285" spans="1:25">
-      <c r="A285" s="49"/>
+      <c r="A285" s="48"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -12171,7 +12219,7 @@
       <c r="Y285" s="4"/>
     </row>
     <row r="286" spans="1:25">
-      <c r="A286" s="49"/>
+      <c r="A286" s="48"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -12193,7 +12241,7 @@
       <c r="Y286" s="4"/>
     </row>
     <row r="287" spans="1:25">
-      <c r="A287" s="49"/>
+      <c r="A287" s="48"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -12215,7 +12263,7 @@
       <c r="Y287" s="4"/>
     </row>
     <row r="288" spans="1:25">
-      <c r="A288" s="49"/>
+      <c r="A288" s="48"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -12237,7 +12285,7 @@
       <c r="Y288" s="4"/>
     </row>
     <row r="289" spans="1:25">
-      <c r="A289" s="49"/>
+      <c r="A289" s="48"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -12259,7 +12307,7 @@
       <c r="Y289" s="4"/>
     </row>
     <row r="290" spans="1:25">
-      <c r="A290" s="49"/>
+      <c r="A290" s="48"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -12281,7 +12329,7 @@
       <c r="Y290" s="4"/>
     </row>
     <row r="291" spans="1:25">
-      <c r="A291" s="49"/>
+      <c r="A291" s="48"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -12303,7 +12351,7 @@
       <c r="Y291" s="4"/>
     </row>
     <row r="292" spans="1:25">
-      <c r="A292" s="49"/>
+      <c r="A292" s="48"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -12325,7 +12373,7 @@
       <c r="Y292" s="4"/>
     </row>
     <row r="293" spans="1:25">
-      <c r="A293" s="49"/>
+      <c r="A293" s="48"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -12347,7 +12395,7 @@
       <c r="Y293" s="4"/>
     </row>
     <row r="294" spans="1:25">
-      <c r="A294" s="49"/>
+      <c r="A294" s="48"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -12369,7 +12417,7 @@
       <c r="Y294" s="4"/>
     </row>
     <row r="295" spans="1:25">
-      <c r="A295" s="49"/>
+      <c r="A295" s="48"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -12391,7 +12439,7 @@
       <c r="Y295" s="4"/>
     </row>
     <row r="296" spans="1:25">
-      <c r="A296" s="49"/>
+      <c r="A296" s="48"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -12413,7 +12461,7 @@
       <c r="Y296" s="4"/>
     </row>
     <row r="297" spans="1:25">
-      <c r="A297" s="49"/>
+      <c r="A297" s="48"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -12435,7 +12483,7 @@
       <c r="Y297" s="4"/>
     </row>
     <row r="298" spans="1:25">
-      <c r="A298" s="49"/>
+      <c r="A298" s="48"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -12457,7 +12505,7 @@
       <c r="Y298" s="4"/>
     </row>
     <row r="299" spans="1:25">
-      <c r="A299" s="49"/>
+      <c r="A299" s="48"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -12479,7 +12527,7 @@
       <c r="Y299" s="4"/>
     </row>
     <row r="300" spans="1:25">
-      <c r="A300" s="49"/>
+      <c r="A300" s="48"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -12501,7 +12549,7 @@
       <c r="Y300" s="4"/>
     </row>
     <row r="301" spans="1:25">
-      <c r="A301" s="49"/>
+      <c r="A301" s="48"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -12523,7 +12571,7 @@
       <c r="Y301" s="4"/>
     </row>
     <row r="302" spans="1:25">
-      <c r="A302" s="49"/>
+      <c r="A302" s="48"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -12545,7 +12593,7 @@
       <c r="Y302" s="4"/>
     </row>
     <row r="303" spans="1:25">
-      <c r="A303" s="49"/>
+      <c r="A303" s="48"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -12567,7 +12615,7 @@
       <c r="Y303" s="4"/>
     </row>
     <row r="304" spans="1:25">
-      <c r="A304" s="49"/>
+      <c r="A304" s="48"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -12589,7 +12637,7 @@
       <c r="Y304" s="4"/>
     </row>
     <row r="305" spans="1:25">
-      <c r="A305" s="49"/>
+      <c r="A305" s="48"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -12611,7 +12659,7 @@
       <c r="Y305" s="4"/>
     </row>
     <row r="306" spans="1:25">
-      <c r="A306" s="49"/>
+      <c r="A306" s="48"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -12633,7 +12681,7 @@
       <c r="Y306" s="4"/>
     </row>
     <row r="307" spans="1:25">
-      <c r="A307" s="49"/>
+      <c r="A307" s="48"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -12655,7 +12703,7 @@
       <c r="Y307" s="4"/>
     </row>
     <row r="308" spans="1:25">
-      <c r="A308" s="49"/>
+      <c r="A308" s="48"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -12677,7 +12725,7 @@
       <c r="Y308" s="4"/>
     </row>
     <row r="309" spans="1:25">
-      <c r="A309" s="49"/>
+      <c r="A309" s="48"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -12699,7 +12747,7 @@
       <c r="Y309" s="4"/>
     </row>
     <row r="310" spans="1:25">
-      <c r="A310" s="49"/>
+      <c r="A310" s="48"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -12721,7 +12769,7 @@
       <c r="Y310" s="4"/>
     </row>
     <row r="311" spans="1:25">
-      <c r="A311" s="49"/>
+      <c r="A311" s="48"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -12743,7 +12791,7 @@
       <c r="Y311" s="4"/>
     </row>
     <row r="312" spans="1:25">
-      <c r="A312" s="49"/>
+      <c r="A312" s="48"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -12765,7 +12813,7 @@
       <c r="Y312" s="4"/>
     </row>
     <row r="313" spans="1:25">
-      <c r="A313" s="49"/>
+      <c r="A313" s="48"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -12787,7 +12835,7 @@
       <c r="Y313" s="4"/>
     </row>
     <row r="314" spans="1:25">
-      <c r="A314" s="49"/>
+      <c r="A314" s="48"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -12809,7 +12857,7 @@
       <c r="Y314" s="4"/>
     </row>
     <row r="315" spans="1:25">
-      <c r="A315" s="49"/>
+      <c r="A315" s="48"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -12831,7 +12879,7 @@
       <c r="Y315" s="4"/>
     </row>
     <row r="316" spans="1:25">
-      <c r="A316" s="49"/>
+      <c r="A316" s="48"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -12853,7 +12901,7 @@
       <c r="Y316" s="4"/>
     </row>
     <row r="317" spans="1:25">
-      <c r="A317" s="49"/>
+      <c r="A317" s="48"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -12875,7 +12923,7 @@
       <c r="Y317" s="4"/>
     </row>
     <row r="318" spans="1:25">
-      <c r="A318" s="49"/>
+      <c r="A318" s="48"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -12897,7 +12945,7 @@
       <c r="Y318" s="4"/>
     </row>
     <row r="319" spans="1:25">
-      <c r="A319" s="49"/>
+      <c r="A319" s="48"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -12919,7 +12967,7 @@
       <c r="Y319" s="4"/>
     </row>
     <row r="320" spans="1:25">
-      <c r="A320" s="49"/>
+      <c r="A320" s="48"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -12941,7 +12989,7 @@
       <c r="Y320" s="4"/>
     </row>
     <row r="321" spans="1:25">
-      <c r="A321" s="49"/>
+      <c r="A321" s="48"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -12963,7 +13011,7 @@
       <c r="Y321" s="4"/>
     </row>
     <row r="322" spans="1:25">
-      <c r="A322" s="49"/>
+      <c r="A322" s="48"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -12985,7 +13033,7 @@
       <c r="Y322" s="4"/>
     </row>
     <row r="323" spans="1:25">
-      <c r="A323" s="49"/>
+      <c r="A323" s="48"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -13007,7 +13055,7 @@
       <c r="Y323" s="4"/>
     </row>
     <row r="324" spans="1:25">
-      <c r="A324" s="49"/>
+      <c r="A324" s="48"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -13029,7 +13077,7 @@
       <c r="Y324" s="4"/>
     </row>
     <row r="325" spans="1:25">
-      <c r="A325" s="49"/>
+      <c r="A325" s="48"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -13051,7 +13099,7 @@
       <c r="Y325" s="4"/>
     </row>
     <row r="326" spans="1:25">
-      <c r="A326" s="49"/>
+      <c r="A326" s="48"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -13073,7 +13121,7 @@
       <c r="Y326" s="4"/>
     </row>
     <row r="327" spans="1:25">
-      <c r="A327" s="49"/>
+      <c r="A327" s="48"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -13095,7 +13143,7 @@
       <c r="Y327" s="4"/>
     </row>
     <row r="328" spans="1:25">
-      <c r="A328" s="49"/>
+      <c r="A328" s="48"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -13117,7 +13165,7 @@
       <c r="Y328" s="4"/>
     </row>
     <row r="329" spans="1:25">
-      <c r="A329" s="49"/>
+      <c r="A329" s="48"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -13139,7 +13187,7 @@
       <c r="Y329" s="4"/>
     </row>
     <row r="330" spans="1:25">
-      <c r="A330" s="49"/>
+      <c r="A330" s="48"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -13161,7 +13209,7 @@
       <c r="Y330" s="4"/>
     </row>
     <row r="331" spans="1:25">
-      <c r="A331" s="49"/>
+      <c r="A331" s="48"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -13183,7 +13231,7 @@
       <c r="Y331" s="4"/>
     </row>
     <row r="332" spans="1:25">
-      <c r="A332" s="49"/>
+      <c r="A332" s="48"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -13205,7 +13253,7 @@
       <c r="Y332" s="4"/>
     </row>
     <row r="333" spans="1:25">
-      <c r="A333" s="49"/>
+      <c r="A333" s="48"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -13227,7 +13275,7 @@
       <c r="Y333" s="4"/>
     </row>
     <row r="334" spans="1:25">
-      <c r="A334" s="49"/>
+      <c r="A334" s="48"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -13249,7 +13297,7 @@
       <c r="Y334" s="4"/>
     </row>
     <row r="335" spans="1:25">
-      <c r="A335" s="49"/>
+      <c r="A335" s="48"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -13271,7 +13319,7 @@
       <c r="Y335" s="4"/>
     </row>
     <row r="336" spans="1:25">
-      <c r="A336" s="49"/>
+      <c r="A336" s="48"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -13293,7 +13341,7 @@
       <c r="Y336" s="4"/>
     </row>
     <row r="337" spans="1:25">
-      <c r="A337" s="49"/>
+      <c r="A337" s="48"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -13315,7 +13363,7 @@
       <c r="Y337" s="4"/>
     </row>
     <row r="338" spans="1:25">
-      <c r="A338" s="49"/>
+      <c r="A338" s="48"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -13337,7 +13385,7 @@
       <c r="Y338" s="4"/>
     </row>
     <row r="339" spans="1:25">
-      <c r="A339" s="49"/>
+      <c r="A339" s="48"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -13359,7 +13407,7 @@
       <c r="Y339" s="4"/>
     </row>
     <row r="340" spans="1:25">
-      <c r="A340" s="49"/>
+      <c r="A340" s="48"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -13381,7 +13429,7 @@
       <c r="Y340" s="4"/>
     </row>
     <row r="341" spans="1:25">
-      <c r="A341" s="49"/>
+      <c r="A341" s="48"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -13403,7 +13451,7 @@
       <c r="Y341" s="4"/>
     </row>
     <row r="342" spans="1:25">
-      <c r="A342" s="49"/>
+      <c r="A342" s="48"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -13425,7 +13473,7 @@
       <c r="Y342" s="4"/>
     </row>
     <row r="343" spans="1:25">
-      <c r="A343" s="49"/>
+      <c r="A343" s="48"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -13447,7 +13495,7 @@
       <c r="Y343" s="4"/>
     </row>
     <row r="344" spans="1:25">
-      <c r="A344" s="49"/>
+      <c r="A344" s="48"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -13469,7 +13517,7 @@
       <c r="Y344" s="4"/>
     </row>
     <row r="345" spans="1:25">
-      <c r="A345" s="49"/>
+      <c r="A345" s="48"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -13491,7 +13539,7 @@
       <c r="Y345" s="4"/>
     </row>
     <row r="346" spans="1:25">
-      <c r="A346" s="49"/>
+      <c r="A346" s="48"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -13513,7 +13561,7 @@
       <c r="Y346" s="4"/>
     </row>
     <row r="347" spans="1:25">
-      <c r="A347" s="49"/>
+      <c r="A347" s="48"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -13535,7 +13583,7 @@
       <c r="Y347" s="4"/>
     </row>
     <row r="348" spans="1:25">
-      <c r="A348" s="49"/>
+      <c r="A348" s="48"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -13557,7 +13605,7 @@
       <c r="Y348" s="4"/>
     </row>
     <row r="349" spans="1:25">
-      <c r="A349" s="49"/>
+      <c r="A349" s="48"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -13579,7 +13627,7 @@
       <c r="Y349" s="4"/>
     </row>
     <row r="350" spans="1:25">
-      <c r="A350" s="49"/>
+      <c r="A350" s="48"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -13601,7 +13649,7 @@
       <c r="Y350" s="4"/>
     </row>
     <row r="351" spans="1:25">
-      <c r="A351" s="49"/>
+      <c r="A351" s="48"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -13623,7 +13671,7 @@
       <c r="Y351" s="4"/>
     </row>
     <row r="352" spans="1:25">
-      <c r="A352" s="49"/>
+      <c r="A352" s="48"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -13645,7 +13693,7 @@
       <c r="Y352" s="4"/>
     </row>
     <row r="353" spans="1:25">
-      <c r="A353" s="49"/>
+      <c r="A353" s="48"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -13667,7 +13715,7 @@
       <c r="Y353" s="4"/>
     </row>
     <row r="354" spans="1:25">
-      <c r="A354" s="49"/>
+      <c r="A354" s="48"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -13689,7 +13737,7 @@
       <c r="Y354" s="4"/>
     </row>
     <row r="355" spans="1:25">
-      <c r="A355" s="49"/>
+      <c r="A355" s="48"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -13711,7 +13759,7 @@
       <c r="Y355" s="4"/>
     </row>
     <row r="356" spans="1:25">
-      <c r="A356" s="49"/>
+      <c r="A356" s="48"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -13733,7 +13781,7 @@
       <c r="Y356" s="4"/>
     </row>
     <row r="357" spans="1:25">
-      <c r="A357" s="49"/>
+      <c r="A357" s="48"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -13755,7 +13803,7 @@
       <c r="Y357" s="4"/>
     </row>
     <row r="358" spans="1:25">
-      <c r="A358" s="49"/>
+      <c r="A358" s="48"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -13777,7 +13825,7 @@
       <c r="Y358" s="4"/>
     </row>
     <row r="359" spans="1:25">
-      <c r="A359" s="49"/>
+      <c r="A359" s="48"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -13799,7 +13847,7 @@
       <c r="Y359" s="4"/>
     </row>
     <row r="360" spans="1:25">
-      <c r="A360" s="49"/>
+      <c r="A360" s="48"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -13821,7 +13869,7 @@
       <c r="Y360" s="4"/>
     </row>
     <row r="361" spans="1:25">
-      <c r="A361" s="49"/>
+      <c r="A361" s="48"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -13843,7 +13891,7 @@
       <c r="Y361" s="4"/>
     </row>
     <row r="362" spans="1:25">
-      <c r="A362" s="49"/>
+      <c r="A362" s="48"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -13865,7 +13913,7 @@
       <c r="Y362" s="4"/>
     </row>
     <row r="363" spans="1:25">
-      <c r="A363" s="49"/>
+      <c r="A363" s="48"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -13887,7 +13935,7 @@
       <c r="Y363" s="4"/>
     </row>
     <row r="364" spans="1:25">
-      <c r="A364" s="49"/>
+      <c r="A364" s="48"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -13909,7 +13957,7 @@
       <c r="Y364" s="4"/>
     </row>
     <row r="365" spans="1:25">
-      <c r="A365" s="49"/>
+      <c r="A365" s="48"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -13931,7 +13979,7 @@
       <c r="Y365" s="4"/>
     </row>
     <row r="366" spans="1:25">
-      <c r="A366" s="49"/>
+      <c r="A366" s="48"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -13953,7 +14001,7 @@
       <c r="Y366" s="4"/>
     </row>
     <row r="367" spans="1:25">
-      <c r="A367" s="49"/>
+      <c r="A367" s="48"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -13975,7 +14023,7 @@
       <c r="Y367" s="4"/>
     </row>
     <row r="368" spans="1:25">
-      <c r="A368" s="49"/>
+      <c r="A368" s="48"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -13997,7 +14045,7 @@
       <c r="Y368" s="4"/>
     </row>
     <row r="369" spans="1:25">
-      <c r="A369" s="49"/>
+      <c r="A369" s="48"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -14019,7 +14067,7 @@
       <c r="Y369" s="4"/>
     </row>
     <row r="370" spans="1:25">
-      <c r="A370" s="49"/>
+      <c r="A370" s="48"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -14041,7 +14089,7 @@
       <c r="Y370" s="4"/>
     </row>
     <row r="371" spans="1:25">
-      <c r="A371" s="49"/>
+      <c r="A371" s="48"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -14063,7 +14111,7 @@
       <c r="Y371" s="4"/>
     </row>
     <row r="372" spans="1:25">
-      <c r="A372" s="49"/>
+      <c r="A372" s="48"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -14085,7 +14133,7 @@
       <c r="Y372" s="4"/>
     </row>
     <row r="373" spans="1:25">
-      <c r="A373" s="49"/>
+      <c r="A373" s="48"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -14107,7 +14155,7 @@
       <c r="Y373" s="4"/>
     </row>
     <row r="374" spans="1:25">
-      <c r="A374" s="49"/>
+      <c r="A374" s="48"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -14129,7 +14177,7 @@
       <c r="Y374" s="4"/>
     </row>
     <row r="375" spans="1:25">
-      <c r="A375" s="49"/>
+      <c r="A375" s="48"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -14151,7 +14199,7 @@
       <c r="Y375" s="4"/>
     </row>
     <row r="376" spans="1:25">
-      <c r="A376" s="49"/>
+      <c r="A376" s="48"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -14173,7 +14221,7 @@
       <c r="Y376" s="4"/>
     </row>
     <row r="377" spans="1:25">
-      <c r="A377" s="49"/>
+      <c r="A377" s="48"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -14195,7 +14243,7 @@
       <c r="Y377" s="4"/>
     </row>
     <row r="378" spans="1:25">
-      <c r="A378" s="49"/>
+      <c r="A378" s="48"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -14217,7 +14265,7 @@
       <c r="Y378" s="4"/>
     </row>
     <row r="379" spans="1:25">
-      <c r="A379" s="49"/>
+      <c r="A379" s="48"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -14239,7 +14287,7 @@
       <c r="Y379" s="4"/>
     </row>
     <row r="380" spans="1:25">
-      <c r="A380" s="49"/>
+      <c r="A380" s="48"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -14261,7 +14309,7 @@
       <c r="Y380" s="4"/>
     </row>
     <row r="381" spans="1:25">
-      <c r="A381" s="49"/>
+      <c r="A381" s="48"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -14283,7 +14331,7 @@
       <c r="Y381" s="4"/>
     </row>
     <row r="382" spans="1:25">
-      <c r="A382" s="49"/>
+      <c r="A382" s="48"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -14305,7 +14353,7 @@
       <c r="Y382" s="4"/>
     </row>
     <row r="383" spans="1:25">
-      <c r="A383" s="49"/>
+      <c r="A383" s="48"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -14327,7 +14375,7 @@
       <c r="Y383" s="4"/>
     </row>
     <row r="384" spans="1:25">
-      <c r="A384" s="49"/>
+      <c r="A384" s="48"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -14349,7 +14397,7 @@
       <c r="Y384" s="4"/>
     </row>
     <row r="385" spans="1:25">
-      <c r="A385" s="49"/>
+      <c r="A385" s="48"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -14371,7 +14419,7 @@
       <c r="Y385" s="4"/>
     </row>
     <row r="386" spans="1:25">
-      <c r="A386" s="49"/>
+      <c r="A386" s="48"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -14393,7 +14441,7 @@
       <c r="Y386" s="4"/>
     </row>
     <row r="387" spans="1:25">
-      <c r="A387" s="49"/>
+      <c r="A387" s="48"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -14415,7 +14463,7 @@
       <c r="Y387" s="4"/>
     </row>
     <row r="388" spans="1:25">
-      <c r="A388" s="49"/>
+      <c r="A388" s="48"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -14437,7 +14485,7 @@
       <c r="Y388" s="4"/>
     </row>
     <row r="389" spans="1:25">
-      <c r="A389" s="49"/>
+      <c r="A389" s="48"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -14459,7 +14507,7 @@
       <c r="Y389" s="4"/>
     </row>
     <row r="390" spans="1:25">
-      <c r="A390" s="49"/>
+      <c r="A390" s="48"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -14481,7 +14529,7 @@
       <c r="Y390" s="4"/>
     </row>
     <row r="391" spans="1:25">
-      <c r="A391" s="49"/>
+      <c r="A391" s="48"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -14503,7 +14551,7 @@
       <c r="Y391" s="4"/>
     </row>
     <row r="392" spans="1:25">
-      <c r="A392" s="49"/>
+      <c r="A392" s="48"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -14525,7 +14573,7 @@
       <c r="Y392" s="4"/>
     </row>
     <row r="393" spans="1:25">
-      <c r="A393" s="49"/>
+      <c r="A393" s="48"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -14547,7 +14595,7 @@
       <c r="Y393" s="4"/>
     </row>
     <row r="394" spans="1:25">
-      <c r="A394" s="49"/>
+      <c r="A394" s="48"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -14569,7 +14617,7 @@
       <c r="Y394" s="4"/>
     </row>
     <row r="395" spans="1:25">
-      <c r="A395" s="49"/>
+      <c r="A395" s="48"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -14591,7 +14639,7 @@
       <c r="Y395" s="4"/>
     </row>
     <row r="396" spans="1:25">
-      <c r="A396" s="49"/>
+      <c r="A396" s="48"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -14613,7 +14661,7 @@
       <c r="Y396" s="4"/>
     </row>
     <row r="397" spans="1:25">
-      <c r="A397" s="49"/>
+      <c r="A397" s="48"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -14635,7 +14683,7 @@
       <c r="Y397" s="4"/>
     </row>
     <row r="398" spans="1:25">
-      <c r="A398" s="49"/>
+      <c r="A398" s="48"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -14657,7 +14705,7 @@
       <c r="Y398" s="4"/>
     </row>
     <row r="399" spans="1:25">
-      <c r="A399" s="49"/>
+      <c r="A399" s="48"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -14679,7 +14727,7 @@
       <c r="Y399" s="4"/>
     </row>
     <row r="400" spans="1:25">
-      <c r="A400" s="49"/>
+      <c r="A400" s="48"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -14701,7 +14749,7 @@
       <c r="Y400" s="4"/>
     </row>
     <row r="401" spans="1:25">
-      <c r="A401" s="49"/>
+      <c r="A401" s="48"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -14723,7 +14771,7 @@
       <c r="Y401" s="4"/>
     </row>
     <row r="402" spans="1:25">
-      <c r="A402" s="49"/>
+      <c r="A402" s="48"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -14745,7 +14793,7 @@
       <c r="Y402" s="4"/>
     </row>
     <row r="403" spans="1:25">
-      <c r="A403" s="49"/>
+      <c r="A403" s="48"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -14767,7 +14815,7 @@
       <c r="Y403" s="4"/>
     </row>
     <row r="404" spans="1:25">
-      <c r="A404" s="49"/>
+      <c r="A404" s="48"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -14789,7 +14837,7 @@
       <c r="Y404" s="4"/>
     </row>
     <row r="405" spans="1:25">
-      <c r="A405" s="49"/>
+      <c r="A405" s="48"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -14811,7 +14859,7 @@
       <c r="Y405" s="4"/>
     </row>
     <row r="406" spans="1:25">
-      <c r="A406" s="49"/>
+      <c r="A406" s="48"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -14833,7 +14881,7 @@
       <c r="Y406" s="4"/>
     </row>
     <row r="407" spans="1:25">
-      <c r="A407" s="49"/>
+      <c r="A407" s="48"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -14855,7 +14903,7 @@
       <c r="Y407" s="4"/>
     </row>
     <row r="408" spans="1:25">
-      <c r="A408" s="49"/>
+      <c r="A408" s="48"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -14877,7 +14925,7 @@
       <c r="Y408" s="4"/>
     </row>
     <row r="409" spans="1:25">
-      <c r="A409" s="49"/>
+      <c r="A409" s="48"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -14899,7 +14947,7 @@
       <c r="Y409" s="4"/>
     </row>
     <row r="410" spans="1:25">
-      <c r="A410" s="49"/>
+      <c r="A410" s="48"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -14921,7 +14969,7 @@
       <c r="Y410" s="4"/>
     </row>
     <row r="411" spans="1:25">
-      <c r="A411" s="49"/>
+      <c r="A411" s="48"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -14943,7 +14991,7 @@
       <c r="Y411" s="4"/>
     </row>
     <row r="412" spans="1:25">
-      <c r="A412" s="49"/>
+      <c r="A412" s="48"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -14965,7 +15013,7 @@
       <c r="Y412" s="4"/>
     </row>
     <row r="413" spans="1:25">
-      <c r="A413" s="49"/>
+      <c r="A413" s="48"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -14987,7 +15035,7 @@
       <c r="Y413" s="4"/>
     </row>
     <row r="414" spans="1:25">
-      <c r="A414" s="49"/>
+      <c r="A414" s="48"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -15009,7 +15057,7 @@
       <c r="Y414" s="4"/>
     </row>
     <row r="415" spans="1:25">
-      <c r="A415" s="49"/>
+      <c r="A415" s="48"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -15031,7 +15079,7 @@
       <c r="Y415" s="4"/>
     </row>
     <row r="416" spans="1:25">
-      <c r="A416" s="49"/>
+      <c r="A416" s="48"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -15053,7 +15101,7 @@
       <c r="Y416" s="4"/>
     </row>
     <row r="417" spans="1:25">
-      <c r="A417" s="49"/>
+      <c r="A417" s="48"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -15075,7 +15123,7 @@
       <c r="Y417" s="4"/>
     </row>
     <row r="418" spans="1:25">
-      <c r="A418" s="49"/>
+      <c r="A418" s="48"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -15097,7 +15145,7 @@
       <c r="Y418" s="4"/>
     </row>
     <row r="419" spans="1:25">
-      <c r="A419" s="49"/>
+      <c r="A419" s="48"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -15119,7 +15167,7 @@
       <c r="Y419" s="4"/>
     </row>
     <row r="420" spans="1:25">
-      <c r="A420" s="49"/>
+      <c r="A420" s="48"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -15141,7 +15189,7 @@
       <c r="Y420" s="4"/>
     </row>
     <row r="421" spans="1:25">
-      <c r="A421" s="49"/>
+      <c r="A421" s="48"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -15163,7 +15211,7 @@
       <c r="Y421" s="4"/>
     </row>
     <row r="422" spans="1:25">
-      <c r="A422" s="49"/>
+      <c r="A422" s="48"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -15185,7 +15233,7 @@
       <c r="Y422" s="4"/>
     </row>
     <row r="423" spans="1:25">
-      <c r="A423" s="49"/>
+      <c r="A423" s="48"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -15207,7 +15255,7 @@
       <c r="Y423" s="4"/>
     </row>
     <row r="424" spans="1:25">
-      <c r="A424" s="49"/>
+      <c r="A424" s="48"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -15229,7 +15277,7 @@
       <c r="Y424" s="4"/>
     </row>
     <row r="425" spans="1:25">
-      <c r="A425" s="49"/>
+      <c r="A425" s="48"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -15251,7 +15299,7 @@
       <c r="Y425" s="4"/>
     </row>
     <row r="426" spans="1:25">
-      <c r="A426" s="49"/>
+      <c r="A426" s="48"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -15273,7 +15321,7 @@
       <c r="Y426" s="4"/>
     </row>
     <row r="427" spans="1:25">
-      <c r="A427" s="49"/>
+      <c r="A427" s="48"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -15295,7 +15343,7 @@
       <c r="Y427" s="4"/>
     </row>
     <row r="428" spans="1:25">
-      <c r="A428" s="49"/>
+      <c r="A428" s="48"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -15317,7 +15365,7 @@
       <c r="Y428" s="4"/>
     </row>
     <row r="429" spans="1:25">
-      <c r="A429" s="49"/>
+      <c r="A429" s="48"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -15339,7 +15387,7 @@
       <c r="Y429" s="4"/>
     </row>
     <row r="430" spans="1:25">
-      <c r="A430" s="49"/>
+      <c r="A430" s="48"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -15361,7 +15409,7 @@
       <c r="Y430" s="4"/>
     </row>
     <row r="431" spans="1:25">
-      <c r="A431" s="49"/>
+      <c r="A431" s="48"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -15383,7 +15431,7 @@
       <c r="Y431" s="4"/>
     </row>
     <row r="432" spans="1:25">
-      <c r="A432" s="49"/>
+      <c r="A432" s="48"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -15405,7 +15453,7 @@
       <c r="Y432" s="4"/>
     </row>
     <row r="433" spans="1:25">
-      <c r="A433" s="49"/>
+      <c r="A433" s="48"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -15427,7 +15475,7 @@
       <c r="Y433" s="4"/>
     </row>
     <row r="434" spans="1:25">
-      <c r="A434" s="49"/>
+      <c r="A434" s="48"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -15449,7 +15497,7 @@
       <c r="Y434" s="4"/>
     </row>
     <row r="435" spans="1:25">
-      <c r="A435" s="49"/>
+      <c r="A435" s="48"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -15471,7 +15519,7 @@
       <c r="Y435" s="4"/>
     </row>
     <row r="436" spans="1:25">
-      <c r="A436" s="49"/>
+      <c r="A436" s="48"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -15493,7 +15541,7 @@
       <c r="Y436" s="4"/>
     </row>
     <row r="437" spans="1:25">
-      <c r="A437" s="49"/>
+      <c r="A437" s="48"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -15515,7 +15563,7 @@
       <c r="Y437" s="4"/>
     </row>
     <row r="438" spans="1:25">
-      <c r="A438" s="49"/>
+      <c r="A438" s="48"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -15537,7 +15585,7 @@
       <c r="Y438" s="4"/>
     </row>
     <row r="439" spans="1:25">
-      <c r="A439" s="49"/>
+      <c r="A439" s="48"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -15559,7 +15607,7 @@
       <c r="Y439" s="4"/>
     </row>
     <row r="440" spans="1:25">
-      <c r="A440" s="49"/>
+      <c r="A440" s="48"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -15581,7 +15629,7 @@
       <c r="Y440" s="4"/>
     </row>
     <row r="441" spans="1:25">
-      <c r="A441" s="49"/>
+      <c r="A441" s="48"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -15603,7 +15651,7 @@
       <c r="Y441" s="4"/>
     </row>
     <row r="442" spans="1:25">
-      <c r="A442" s="49"/>
+      <c r="A442" s="48"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -15625,7 +15673,7 @@
       <c r="Y442" s="4"/>
     </row>
     <row r="443" spans="1:25">
-      <c r="A443" s="49"/>
+      <c r="A443" s="48"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -15647,7 +15695,7 @@
       <c r="Y443" s="4"/>
     </row>
     <row r="444" spans="1:25">
-      <c r="A444" s="49"/>
+      <c r="A444" s="48"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -15669,7 +15717,7 @@
       <c r="Y444" s="4"/>
     </row>
     <row r="445" spans="1:25">
-      <c r="A445" s="49"/>
+      <c r="A445" s="48"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -15691,7 +15739,7 @@
       <c r="Y445" s="4"/>
     </row>
     <row r="446" spans="1:25">
-      <c r="A446" s="49"/>
+      <c r="A446" s="48"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -15713,7 +15761,7 @@
       <c r="Y446" s="4"/>
     </row>
     <row r="447" spans="1:25">
-      <c r="A447" s="49"/>
+      <c r="A447" s="48"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -15735,7 +15783,7 @@
       <c r="Y447" s="4"/>
     </row>
     <row r="448" spans="1:25">
-      <c r="A448" s="49"/>
+      <c r="A448" s="48"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -15757,7 +15805,7 @@
       <c r="Y448" s="4"/>
     </row>
     <row r="449" spans="1:25">
-      <c r="A449" s="49"/>
+      <c r="A449" s="48"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -15779,7 +15827,7 @@
       <c r="Y449" s="4"/>
     </row>
     <row r="450" spans="1:25">
-      <c r="A450" s="49"/>
+      <c r="A450" s="48"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -15801,7 +15849,7 @@
       <c r="Y450" s="4"/>
     </row>
     <row r="451" spans="1:25">
-      <c r="A451" s="49"/>
+      <c r="A451" s="48"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -15823,7 +15871,7 @@
       <c r="Y451" s="4"/>
     </row>
     <row r="452" spans="1:25">
-      <c r="A452" s="49"/>
+      <c r="A452" s="48"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -15845,7 +15893,7 @@
       <c r="Y452" s="4"/>
     </row>
     <row r="453" spans="1:25">
-      <c r="A453" s="49"/>
+      <c r="A453" s="48"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -15867,7 +15915,7 @@
       <c r="Y453" s="4"/>
     </row>
     <row r="454" spans="1:25">
-      <c r="A454" s="49"/>
+      <c r="A454" s="48"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -15889,7 +15937,7 @@
       <c r="Y454" s="4"/>
     </row>
     <row r="455" spans="1:25">
-      <c r="A455" s="49"/>
+      <c r="A455" s="48"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -15911,7 +15959,7 @@
       <c r="Y455" s="4"/>
     </row>
     <row r="456" spans="1:25">
-      <c r="A456" s="49"/>
+      <c r="A456" s="48"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -15933,7 +15981,7 @@
       <c r="Y456" s="4"/>
     </row>
     <row r="457" spans="1:25">
-      <c r="A457" s="49"/>
+      <c r="A457" s="48"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -15955,7 +16003,7 @@
       <c r="Y457" s="4"/>
     </row>
     <row r="458" spans="1:25">
-      <c r="A458" s="49"/>
+      <c r="A458" s="48"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -15977,7 +16025,7 @@
       <c r="Y458" s="4"/>
     </row>
     <row r="459" spans="1:25">
-      <c r="A459" s="49"/>
+      <c r="A459" s="48"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -15999,7 +16047,7 @@
       <c r="Y459" s="4"/>
     </row>
     <row r="460" spans="1:25">
-      <c r="A460" s="49"/>
+      <c r="A460" s="48"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -16021,7 +16069,7 @@
       <c r="Y460" s="4"/>
     </row>
     <row r="461" spans="1:25">
-      <c r="A461" s="49"/>
+      <c r="A461" s="48"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -16043,7 +16091,7 @@
       <c r="Y461" s="4"/>
     </row>
     <row r="462" spans="1:25">
-      <c r="A462" s="49"/>
+      <c r="A462" s="48"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -16065,7 +16113,7 @@
       <c r="Y462" s="4"/>
     </row>
     <row r="463" spans="1:25">
-      <c r="A463" s="49"/>
+      <c r="A463" s="48"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
